--- a/assets/downloads/agente_compra/TRADING-ORDEN-PERU.xlsx
+++ b/assets/downloads/agente_compra/TRADING-ORDEN-PERU.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miguel/Desktop/SISTEMA/AGENTE DE COMPRA/EXCEL SISTEMA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\probusinees-intranet\assets\downloads\agente_compra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07927087-C2FE-D843-9BB7-4F9C5FA6651A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1639936-3240-4D82-858E-A250D3DB9621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="2000" windowWidth="26700" windowHeight="16800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COD" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">COD!$C$1:$W$71</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">COD!$C$1:$X$71</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,7 +42,7 @@
     <author>Miguel Villegas Perez</author>
   </authors>
   <commentList>
-    <comment ref="R9" authorId="0" shapeId="0" xr:uid="{27DE1C78-1ADE-134C-8B83-3D0121131AA3}">
+    <comment ref="S9" authorId="0" shapeId="0" xr:uid="{27DE1C78-1ADE-134C-8B83-3D0121131AA3}">
       <text>
         <r>
           <rPr>
@@ -74,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
   <si>
     <t>CARACTERISTICAS</t>
   </si>
@@ -291,6 +289,9 @@
   </si>
   <si>
     <t>Shuangchuang Building 1 Building 10 10th Floor Room 1013 1133 Zhouzhou</t>
+  </si>
+  <si>
+    <t>MOQ</t>
   </si>
 </sst>
 </file>
@@ -298,13 +299,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="44" formatCode="_-&quot;S/&quot;* #,##0.00_-;\-&quot;S/&quot;* #,##0.00_-;_-&quot;S/&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="_-[$$-80A]* #,##0.00_-;\-[$$-80A]* #,##0.00_-;_-[$$-80A]* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="[$$-540A]#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="_ [$¥-804]* #,##0.00_ ;_ [$¥-804]* \-#,##0.00_ ;_ [$¥-804]* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="168" formatCode="_-[$$-540A]* #,##0.00_ ;_-[$$-540A]* \-#,##0.00\ ;_-[$$-540A]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="169" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="164" formatCode="_-&quot;S/&quot;* #,##0.00_-;\-&quot;S/&quot;* #,##0.00_-;_-&quot;S/&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="_-[$$-80A]* #,##0.00_-;\-[$$-80A]* #,##0.00_-;_-[$$-80A]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="[$$-540A]#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="_ [$¥-804]* #,##0.00_ ;_ [$¥-804]* \-#,##0.00_ ;_ [$¥-804]* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="169" formatCode="_-[$$-540A]* #,##0.00_ ;_-[$$-540A]* \-#,##0.00\ ;_-[$$-540A]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="170" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
   <fonts count="35" x14ac:knownFonts="1">
     <font>
@@ -984,9 +985,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -998,10 +999,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -1013,7 +1014,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1021,7 +1022,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1085,30 +1086,30 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1135,16 +1136,16 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="3" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="3" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1153,13 +1154,13 @@
     <xf numFmtId="2" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1171,7 +1172,7 @@
     <xf numFmtId="2" fontId="13" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1186,16 +1187,16 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="13" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="13" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1207,22 +1208,22 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="13" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1231,13 +1232,13 @@
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1246,16 +1247,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1264,35 +1265,146 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="168" fontId="20" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="20" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1304,105 +1416,6 @@
     <xf numFmtId="0" fontId="33" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1415,12 +1428,6 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1428,6 +1435,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1836,36 +1849,36 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="C1:AF71"/>
+  <dimension ref="C1:AG71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="40" zoomScaleNormal="40" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="47" style="1" customWidth="1"/>
-    <col min="6" max="6" width="37.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="36.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.83203125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="21.1640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="21.1640625" style="47" customWidth="1"/>
-    <col min="13" max="13" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.5" style="1" customWidth="1"/>
-    <col min="15" max="16" width="16" style="1" customWidth="1"/>
-    <col min="17" max="19" width="20.33203125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="21.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="26" customWidth="1"/>
-    <col min="22" max="22" width="13.5" customWidth="1"/>
-    <col min="32" max="32" width="20" customWidth="1"/>
+    <col min="6" max="6" width="37.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36.625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="20.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="21.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21.125" style="47" customWidth="1"/>
+    <col min="14" max="14" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5" style="1" customWidth="1"/>
+    <col min="16" max="17" width="16" style="1" customWidth="1"/>
+    <col min="18" max="20" width="20.375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="21.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26" customWidth="1"/>
+    <col min="23" max="23" width="13.5" customWidth="1"/>
+    <col min="33" max="33" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C1" s="7"/>
       <c r="D1" s="13"/>
       <c r="E1" s="21"/>
@@ -1873,30 +1886,31 @@
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="46"/>
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
       <c r="P1" s="13"/>
       <c r="Q1" s="13"/>
       <c r="R1" s="13"/>
       <c r="S1" s="13"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="21"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="14"/>
       <c r="V1" s="21"/>
-      <c r="W1" s="8"/>
-    </row>
-    <row r="2" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W1" s="21"/>
+      <c r="X1" s="8"/>
+    </row>
+    <row r="2" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C2" s="9"/>
-      <c r="W2" s="10"/>
-    </row>
-    <row r="3" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X2" s="10"/>
+    </row>
+    <row r="3" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C3" s="9"/>
-      <c r="W3" s="10"/>
-    </row>
-    <row r="4" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X3" s="10"/>
+    </row>
+    <row r="4" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C4" s="9"/>
       <c r="F4"/>
       <c r="G4"/>
@@ -1904,54 +1918,58 @@
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
-      <c r="L4" s="48"/>
-      <c r="W4" s="10"/>
-    </row>
-    <row r="5" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="L4"/>
+      <c r="M4" s="48"/>
+      <c r="X4" s="10"/>
+    </row>
+    <row r="5" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C5" s="9"/>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
-      <c r="L5" s="48"/>
-      <c r="W5" s="10"/>
-    </row>
-    <row r="6" spans="3:23" ht="92" x14ac:dyDescent="0.2">
+      <c r="L5"/>
+      <c r="M5" s="48"/>
+      <c r="X5" s="10"/>
+    </row>
+    <row r="6" spans="3:24" ht="92.25" x14ac:dyDescent="0.25">
       <c r="C6" s="9"/>
       <c r="D6" s="26"/>
       <c r="E6" s="27"/>
-      <c r="F6" s="118" t="s">
+      <c r="F6" s="155" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="118"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6"/>
+      <c r="G6" s="155"/>
+      <c r="H6" s="155"/>
+      <c r="I6" s="155"/>
+      <c r="J6" s="155"/>
       <c r="K6"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="3"/>
-      <c r="N6"/>
-      <c r="U6" s="28" t="s">
+      <c r="L6"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="3"/>
+      <c r="O6"/>
+      <c r="V6" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="W6" s="10"/>
-    </row>
-    <row r="7" spans="3:23" ht="37" x14ac:dyDescent="0.45">
+      <c r="X6" s="10"/>
+    </row>
+    <row r="7" spans="3:24" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" s="9"/>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="155"/>
+      <c r="H7" s="155"/>
+      <c r="I7" s="155"/>
+      <c r="J7" s="155"/>
       <c r="K7"/>
-      <c r="L7" s="48"/>
-      <c r="M7"/>
+      <c r="L7"/>
+      <c r="M7" s="48"/>
       <c r="N7"/>
-      <c r="W7" s="10"/>
-    </row>
-    <row r="8" spans="3:23" ht="37" x14ac:dyDescent="0.45">
+      <c r="O7"/>
+      <c r="X7" s="10"/>
+    </row>
+    <row r="8" spans="3:24" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="9"/>
       <c r="D8" s="34" t="s">
         <v>9</v>
@@ -1964,78 +1982,81 @@
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
-      <c r="K8"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="129" t="s">
+      <c r="K8" s="33"/>
+      <c r="L8"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="129"/>
-      <c r="P8" s="129"/>
-      <c r="Q8" s="129"/>
-      <c r="R8" s="129" t="s">
+      <c r="P8" s="140"/>
+      <c r="Q8" s="140"/>
+      <c r="R8" s="140"/>
+      <c r="S8" s="140" t="s">
         <v>16</v>
       </c>
-      <c r="S8" s="129"/>
-      <c r="T8" s="129"/>
-      <c r="U8" s="129"/>
-      <c r="W8" s="10"/>
-    </row>
-    <row r="9" spans="3:23" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T8" s="140"/>
+      <c r="U8" s="140"/>
+      <c r="V8" s="140"/>
+      <c r="X8" s="10"/>
+    </row>
+    <row r="9" spans="3:24" ht="30.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C9" s="9"/>
       <c r="D9" s="32" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="32"/>
-      <c r="F9" s="154" t="s">
+      <c r="F9" s="158" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="154"/>
+      <c r="G9" s="158"/>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
-      <c r="K9"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="130" t="s">
+      <c r="K9" s="33"/>
+      <c r="L9"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="131"/>
-      <c r="P9" s="131"/>
-      <c r="Q9" s="132"/>
-      <c r="R9" s="125">
+      <c r="P9" s="142"/>
+      <c r="Q9" s="142"/>
+      <c r="R9" s="143"/>
+      <c r="S9" s="136">
         <v>45470</v>
       </c>
-      <c r="S9" s="125"/>
-      <c r="T9" s="125"/>
-      <c r="U9" s="126"/>
-      <c r="W9" s="10"/>
-    </row>
-    <row r="10" spans="3:23" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T9" s="136"/>
+      <c r="U9" s="136"/>
+      <c r="V9" s="137"/>
+      <c r="X9" s="10"/>
+    </row>
+    <row r="10" spans="3:24" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C10" s="9"/>
       <c r="D10" s="32" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="32"/>
-      <c r="F10" s="154"/>
-      <c r="G10" s="154"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="158"/>
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
       <c r="J10" s="33"/>
-      <c r="K10"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="133"/>
-      <c r="O10" s="134"/>
-      <c r="P10" s="134"/>
-      <c r="Q10" s="135"/>
-      <c r="R10" s="127"/>
-      <c r="S10" s="127"/>
-      <c r="T10" s="127"/>
-      <c r="U10" s="128"/>
-      <c r="W10" s="10"/>
-    </row>
-    <row r="11" spans="3:23" ht="37" x14ac:dyDescent="0.45">
+      <c r="K10" s="33"/>
+      <c r="L10"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="144"/>
+      <c r="P10" s="145"/>
+      <c r="Q10" s="145"/>
+      <c r="R10" s="146"/>
+      <c r="S10" s="138"/>
+      <c r="T10" s="138"/>
+      <c r="U10" s="138"/>
+      <c r="V10" s="139"/>
+      <c r="X10" s="10"/>
+    </row>
+    <row r="11" spans="3:24" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" s="9"/>
       <c r="E11" s="30"/>
       <c r="F11" s="30"/>
@@ -2044,17 +2065,18 @@
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="3"/>
-      <c r="N11"/>
-      <c r="P11"/>
+      <c r="L11"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="3"/>
+      <c r="O11"/>
       <c r="Q11"/>
       <c r="R11"/>
       <c r="S11"/>
-      <c r="T11" s="52"/>
-      <c r="W11" s="10"/>
-    </row>
-    <row r="12" spans="3:23" ht="37" x14ac:dyDescent="0.45">
+      <c r="T11"/>
+      <c r="U11" s="52"/>
+      <c r="X11" s="10"/>
+    </row>
+    <row r="12" spans="3:24" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" s="9"/>
       <c r="E12" s="30"/>
       <c r="F12" s="30"/>
@@ -2063,41 +2085,43 @@
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="3"/>
-      <c r="N12"/>
+      <c r="L12"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="3"/>
       <c r="O12"/>
       <c r="P12"/>
-      <c r="Q12" s="23"/>
+      <c r="Q12"/>
       <c r="R12" s="23"/>
       <c r="S12" s="23"/>
-      <c r="T12" s="53"/>
-      <c r="W12" s="10"/>
-    </row>
-    <row r="13" spans="3:23" ht="37" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="T12" s="23"/>
+      <c r="U12" s="53"/>
+      <c r="X12" s="10"/>
+    </row>
+    <row r="13" spans="3:24" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" s="9"/>
-      <c r="D13" s="160" t="s">
+      <c r="D13" s="162" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="161"/>
+      <c r="E13" s="163"/>
       <c r="F13" s="30"/>
       <c r="G13" s="30"/>
       <c r="H13"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="3"/>
-      <c r="N13"/>
+      <c r="L13"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="3"/>
       <c r="O13"/>
       <c r="P13"/>
-      <c r="Q13" s="23"/>
+      <c r="Q13"/>
       <c r="R13" s="23"/>
       <c r="S13" s="23"/>
-      <c r="T13" s="53"/>
-      <c r="W13" s="10"/>
-    </row>
-    <row r="14" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="T13" s="23"/>
+      <c r="U13" s="53"/>
+      <c r="X13" s="10"/>
+    </row>
+    <row r="14" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C14" s="9"/>
       <c r="E14"/>
       <c r="F14"/>
@@ -2106,18 +2130,19 @@
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
-      <c r="L14" s="48"/>
-      <c r="M14"/>
+      <c r="L14"/>
+      <c r="M14" s="48"/>
       <c r="N14"/>
       <c r="O14"/>
       <c r="P14"/>
       <c r="Q14"/>
       <c r="R14"/>
       <c r="S14"/>
-      <c r="T14" s="52"/>
-      <c r="W14" s="10"/>
-    </row>
-    <row r="15" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="T14"/>
+      <c r="U14" s="52"/>
+      <c r="X14" s="10"/>
+    </row>
+    <row r="15" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C15" s="9"/>
       <c r="D15"/>
       <c r="E15"/>
@@ -2127,18 +2152,19 @@
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
-      <c r="L15" s="48"/>
-      <c r="M15"/>
+      <c r="L15"/>
+      <c r="M15" s="48"/>
       <c r="N15"/>
       <c r="O15"/>
       <c r="P15"/>
       <c r="Q15"/>
       <c r="R15"/>
       <c r="S15"/>
-      <c r="T15" s="52"/>
-      <c r="W15" s="10"/>
-    </row>
-    <row r="16" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="T15"/>
+      <c r="U15" s="52"/>
+      <c r="X15" s="10"/>
+    </row>
+    <row r="16" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C16" s="9"/>
       <c r="D16"/>
       <c r="E16"/>
@@ -2148,148 +2174,155 @@
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
-      <c r="L16" s="48"/>
-      <c r="M16"/>
+      <c r="L16"/>
+      <c r="M16" s="48"/>
       <c r="N16"/>
       <c r="O16"/>
       <c r="P16"/>
       <c r="Q16"/>
       <c r="R16"/>
       <c r="S16"/>
-      <c r="T16" s="52"/>
-      <c r="W16" s="10"/>
-    </row>
-    <row r="17" spans="3:23" ht="31" x14ac:dyDescent="0.35">
+      <c r="T16"/>
+      <c r="U16" s="52"/>
+      <c r="X16" s="10"/>
+    </row>
+    <row r="17" spans="3:24" ht="31.5" x14ac:dyDescent="0.5">
       <c r="C17" s="9"/>
-      <c r="D17" s="152" t="s">
+      <c r="D17" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="153"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="142"/>
-      <c r="H17" s="143"/>
-      <c r="I17" s="87"/>
-      <c r="J17"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="165"/>
+      <c r="J17" s="87"/>
       <c r="K17"/>
-      <c r="L17" s="48"/>
-      <c r="O17" s="152" t="s">
+      <c r="L17"/>
+      <c r="M17" s="48"/>
+      <c r="P17" s="132" t="s">
         <v>14</v>
       </c>
-      <c r="P17" s="153"/>
-      <c r="Q17" s="153"/>
-      <c r="R17" s="142"/>
-      <c r="S17" s="142"/>
-      <c r="T17" s="142"/>
-      <c r="U17" s="143"/>
-      <c r="W17" s="10"/>
-    </row>
-    <row r="18" spans="3:23" ht="31" x14ac:dyDescent="0.35">
+      <c r="Q17" s="133"/>
+      <c r="R17" s="133"/>
+      <c r="S17" s="122"/>
+      <c r="T17" s="122"/>
+      <c r="U17" s="122"/>
+      <c r="V17" s="123"/>
+      <c r="X17" s="10"/>
+    </row>
+    <row r="18" spans="3:24" ht="31.5" x14ac:dyDescent="0.5">
       <c r="C18" s="9"/>
-      <c r="D18" s="150" t="s">
+      <c r="D18" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="151"/>
-      <c r="F18" s="144"/>
-      <c r="G18" s="144"/>
-      <c r="H18" s="145"/>
-      <c r="I18" s="87"/>
-      <c r="J18"/>
+      <c r="E18" s="131"/>
+      <c r="F18" s="124"/>
+      <c r="G18" s="124"/>
+      <c r="H18" s="125"/>
+      <c r="I18" s="165"/>
+      <c r="J18" s="87"/>
       <c r="K18"/>
-      <c r="L18" s="48"/>
-      <c r="O18" s="150" t="s">
+      <c r="L18"/>
+      <c r="M18" s="48"/>
+      <c r="P18" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="P18" s="151"/>
-      <c r="Q18" s="151"/>
-      <c r="R18" s="144"/>
-      <c r="S18" s="144"/>
-      <c r="T18" s="144"/>
-      <c r="U18" s="145"/>
-      <c r="W18" s="10"/>
-    </row>
-    <row r="19" spans="3:23" ht="31" x14ac:dyDescent="0.35">
+      <c r="Q18" s="131"/>
+      <c r="R18" s="131"/>
+      <c r="S18" s="124"/>
+      <c r="T18" s="124"/>
+      <c r="U18" s="124"/>
+      <c r="V18" s="125"/>
+      <c r="X18" s="10"/>
+    </row>
+    <row r="19" spans="3:24" ht="31.5" x14ac:dyDescent="0.5">
       <c r="C19" s="9"/>
-      <c r="D19" s="150" t="s">
+      <c r="D19" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="151"/>
-      <c r="F19" s="144"/>
-      <c r="G19" s="144"/>
-      <c r="H19" s="145"/>
-      <c r="I19" s="87"/>
-      <c r="J19"/>
+      <c r="E19" s="131"/>
+      <c r="F19" s="124"/>
+      <c r="G19" s="124"/>
+      <c r="H19" s="125"/>
+      <c r="I19" s="165"/>
+      <c r="J19" s="87"/>
       <c r="K19"/>
-      <c r="L19" s="48"/>
-      <c r="O19" s="150" t="s">
+      <c r="L19"/>
+      <c r="M19" s="48"/>
+      <c r="P19" s="130" t="s">
         <v>39</v>
       </c>
-      <c r="P19" s="151"/>
-      <c r="Q19" s="151"/>
-      <c r="R19" s="144"/>
-      <c r="S19" s="144"/>
-      <c r="T19" s="144"/>
-      <c r="U19" s="145"/>
-      <c r="W19" s="10"/>
-    </row>
-    <row r="20" spans="3:23" ht="31" x14ac:dyDescent="0.35">
+      <c r="Q19" s="131"/>
+      <c r="R19" s="131"/>
+      <c r="S19" s="124"/>
+      <c r="T19" s="124"/>
+      <c r="U19" s="124"/>
+      <c r="V19" s="125"/>
+      <c r="X19" s="10"/>
+    </row>
+    <row r="20" spans="3:24" ht="31.5" x14ac:dyDescent="0.5">
       <c r="C20" s="9"/>
-      <c r="D20" s="148" t="s">
+      <c r="D20" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="149"/>
-      <c r="F20" s="134"/>
-      <c r="G20" s="134"/>
-      <c r="H20" s="162"/>
-      <c r="I20" s="86"/>
-      <c r="K20"/>
-      <c r="L20" s="48"/>
-      <c r="O20" s="148" t="s">
+      <c r="E20" s="129"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="164"/>
+      <c r="I20" s="166"/>
+      <c r="J20" s="86"/>
+      <c r="L20"/>
+      <c r="M20" s="48"/>
+      <c r="P20" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="P20" s="149"/>
-      <c r="Q20" s="149"/>
-      <c r="R20" s="146"/>
-      <c r="S20" s="146"/>
-      <c r="T20" s="146"/>
-      <c r="U20" s="147"/>
-      <c r="W20" s="10"/>
-    </row>
-    <row r="21" spans="3:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="Q20" s="129"/>
+      <c r="R20" s="129"/>
+      <c r="S20" s="126"/>
+      <c r="T20" s="126"/>
+      <c r="U20" s="126"/>
+      <c r="V20" s="127"/>
+      <c r="X20" s="10"/>
+    </row>
+    <row r="21" spans="3:24" ht="21" x14ac:dyDescent="0.35">
       <c r="C21" s="9"/>
-      <c r="F21" s="155"/>
-      <c r="G21" s="155"/>
-      <c r="H21" s="155"/>
-      <c r="I21" s="38"/>
-      <c r="J21"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="159"/>
+      <c r="H21" s="159"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="38"/>
       <c r="K21"/>
-      <c r="L21" s="48"/>
-      <c r="W21" s="10"/>
-    </row>
-    <row r="22" spans="3:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L21"/>
+      <c r="M21" s="48"/>
+      <c r="X21" s="10"/>
+    </row>
+    <row r="22" spans="3:24" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C22" s="9"/>
       <c r="D22"/>
       <c r="F22" s="44"/>
       <c r="G22" s="44"/>
       <c r="H22" s="44"/>
       <c r="I22" s="44"/>
-      <c r="J22"/>
+      <c r="J22" s="44"/>
       <c r="K22"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="31"/>
+      <c r="L22"/>
+      <c r="M22" s="48"/>
       <c r="N22" s="31"/>
-      <c r="O22" s="43"/>
+      <c r="O22" s="31"/>
       <c r="P22" s="43"/>
       <c r="Q22" s="43"/>
       <c r="R22" s="43"/>
-      <c r="S22" s="82" t="s">
+      <c r="S22" s="43"/>
+      <c r="T22" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="T22" s="98">
+      <c r="U22" s="98">
         <v>7.1</v>
       </c>
-      <c r="W22" s="10"/>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="10"/>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C23" s="9"/>
       <c r="D23"/>
       <c r="E23"/>
@@ -2299,18 +2332,19 @@
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
-      <c r="L23" s="48"/>
-      <c r="M23"/>
+      <c r="L23"/>
+      <c r="M23" s="48"/>
       <c r="N23"/>
       <c r="O23"/>
       <c r="P23"/>
       <c r="Q23"/>
       <c r="R23"/>
       <c r="S23"/>
-      <c r="T23" s="53"/>
-      <c r="W23" s="10"/>
-    </row>
-    <row r="24" spans="3:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="T23"/>
+      <c r="U23" s="53"/>
+      <c r="X23" s="10"/>
+    </row>
+    <row r="24" spans="3:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="9"/>
       <c r="D24" s="19"/>
       <c r="E24" s="20"/>
@@ -2320,61 +2354,64 @@
       <c r="I24" s="20"/>
       <c r="J24" s="20"/>
       <c r="K24" s="20"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="49"/>
       <c r="N24" s="20"/>
       <c r="O24" s="20"/>
       <c r="P24" s="20"/>
       <c r="Q24" s="20"/>
       <c r="R24" s="20"/>
       <c r="S24" s="20"/>
-      <c r="T24" s="54"/>
-      <c r="U24" s="22"/>
-      <c r="W24" s="10"/>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="T24" s="20"/>
+      <c r="U24" s="54"/>
+      <c r="V24" s="22"/>
+      <c r="X24" s="10"/>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C25" s="9"/>
       <c r="D25" s="24"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+      <c r="I25" s="117"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="50"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
-      <c r="T25" s="55"/>
-      <c r="W25" s="10"/>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="T25" s="2"/>
+      <c r="U25" s="55"/>
+      <c r="X25" s="10"/>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C26" s="9"/>
-      <c r="D26" s="158"/>
-      <c r="E26" s="158"/>
-      <c r="F26" s="158"/>
-      <c r="G26" s="158"/>
-      <c r="H26" s="158"/>
-      <c r="I26" s="158"/>
-      <c r="J26" s="158"/>
-      <c r="K26" s="158"/>
-      <c r="L26" s="158"/>
-      <c r="M26" s="158"/>
-      <c r="N26" s="158"/>
-      <c r="O26" s="158"/>
-      <c r="P26" s="158"/>
-      <c r="Q26" s="158"/>
-      <c r="R26" s="158"/>
-      <c r="S26" s="158"/>
-      <c r="T26" s="158"/>
-      <c r="W26" s="10"/>
-    </row>
-    <row r="27" spans="3:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D26" s="134"/>
+      <c r="E26" s="134"/>
+      <c r="F26" s="134"/>
+      <c r="G26" s="134"/>
+      <c r="H26" s="134"/>
+      <c r="I26" s="134"/>
+      <c r="J26" s="134"/>
+      <c r="K26" s="134"/>
+      <c r="L26" s="134"/>
+      <c r="M26" s="134"/>
+      <c r="N26" s="134"/>
+      <c r="O26" s="134"/>
+      <c r="P26" s="134"/>
+      <c r="Q26" s="134"/>
+      <c r="R26" s="134"/>
+      <c r="S26" s="134"/>
+      <c r="T26" s="134"/>
+      <c r="U26" s="134"/>
+      <c r="X26" s="10"/>
+    </row>
+    <row r="27" spans="3:24" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="9"/>
       <c r="D27" s="62" t="s">
         <v>1</v>
@@ -2392,47 +2429,50 @@
         <v>6</v>
       </c>
       <c r="I27" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="J27" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="J27" s="64" t="s">
+      <c r="K27" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="K27" s="85" t="s">
+      <c r="L27" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="L27" s="65" t="s">
+      <c r="M27" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="M27" s="63" t="s">
+      <c r="N27" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="N27" s="63" t="s">
+      <c r="O27" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="O27" s="63" t="s">
+      <c r="P27" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="P27" s="63" t="s">
+      <c r="Q27" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="Q27" s="66" t="s">
+      <c r="R27" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="R27" s="66" t="s">
+      <c r="S27" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="S27" s="66" t="s">
+      <c r="T27" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="T27" s="64" t="s">
+      <c r="U27" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="U27" s="66" t="s">
+      <c r="V27" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="W27" s="10"/>
-    </row>
-    <row r="28" spans="3:23" ht="210" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X27" s="10"/>
+    </row>
+    <row r="28" spans="3:24" ht="210" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="9"/>
       <c r="D28" s="39">
         <v>1</v>
@@ -2442,38 +2482,39 @@
       <c r="G28" s="60"/>
       <c r="H28" s="90"/>
       <c r="I28" s="90"/>
-      <c r="J28" s="88"/>
-      <c r="K28" s="91">
-        <f>J28/$T$22</f>
+      <c r="J28" s="90"/>
+      <c r="K28" s="88"/>
+      <c r="L28" s="91">
+        <f>K28/$U$22</f>
         <v>0</v>
       </c>
-      <c r="L28" s="83">
-        <f>H28*J28</f>
-        <v>0</v>
-      </c>
-      <c r="M28" s="67">
+      <c r="M28" s="83">
         <f>H28*K28</f>
         <v>0</v>
       </c>
-      <c r="N28" s="61"/>
+      <c r="N28" s="67">
+        <f>H28*L28</f>
+        <v>0</v>
+      </c>
       <c r="O28" s="61"/>
       <c r="P28" s="61"/>
-      <c r="Q28" s="68">
-        <f>O28*P28</f>
+      <c r="Q28" s="61"/>
+      <c r="R28" s="68">
+        <f>P28*Q28</f>
         <v>0</v>
       </c>
-      <c r="R28" s="69"/>
-      <c r="S28" s="69">
-        <f>R28*O28</f>
+      <c r="S28" s="69"/>
+      <c r="T28" s="69">
+        <f>S28*P28</f>
         <v>0</v>
       </c>
-      <c r="T28" s="70">
+      <c r="U28" s="70">
         <v>0</v>
       </c>
-      <c r="U28" s="71"/>
-      <c r="W28" s="10"/>
-    </row>
-    <row r="29" spans="3:23" ht="210.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V28" s="71"/>
+      <c r="X28" s="10"/>
+    </row>
+    <row r="29" spans="3:24" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="9"/>
       <c r="D29" s="40">
         <v>2</v>
@@ -2483,113 +2524,116 @@
       <c r="G29" s="42"/>
       <c r="H29" s="90"/>
       <c r="I29" s="90"/>
-      <c r="J29" s="89"/>
-      <c r="K29" s="91">
-        <f>J29/$T$22</f>
+      <c r="J29" s="90"/>
+      <c r="K29" s="89"/>
+      <c r="L29" s="91">
+        <f>K29/$U$22</f>
         <v>0</v>
       </c>
-      <c r="L29" s="84">
-        <f>H29*J29</f>
-        <v>0</v>
-      </c>
-      <c r="M29" s="72">
+      <c r="M29" s="84">
         <f>H29*K29</f>
         <v>0</v>
       </c>
-      <c r="N29" s="35"/>
+      <c r="N29" s="72">
+        <f>H29*L29</f>
+        <v>0</v>
+      </c>
       <c r="O29" s="35"/>
       <c r="P29" s="35"/>
-      <c r="Q29" s="73">
-        <f>O29*P29</f>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="73">
+        <f>P29*Q29</f>
         <v>0</v>
       </c>
-      <c r="R29" s="74"/>
-      <c r="S29" s="75">
-        <f>R29*O29</f>
+      <c r="S29" s="74"/>
+      <c r="T29" s="75">
+        <f>S29*P29</f>
         <v>0</v>
       </c>
-      <c r="T29" s="76">
+      <c r="U29" s="76">
         <v>0</v>
       </c>
-      <c r="U29" s="77"/>
-      <c r="W29" s="10"/>
-    </row>
-    <row r="30" spans="3:23" s="4" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="V29" s="77"/>
+      <c r="X29" s="10"/>
+    </row>
+    <row r="30" spans="3:24" s="4" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="C30" s="15"/>
-      <c r="D30" s="156" t="s">
+      <c r="D30" s="160" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="157"/>
-      <c r="F30" s="157"/>
-      <c r="G30" s="157"/>
-      <c r="H30" s="157"/>
-      <c r="I30" s="157"/>
-      <c r="J30" s="156"/>
-      <c r="K30" s="157"/>
-      <c r="L30" s="159">
-        <f>SUM(L28:L29)</f>
-        <v>0</v>
-      </c>
-      <c r="M30" s="138">
+      <c r="E30" s="161"/>
+      <c r="F30" s="161"/>
+      <c r="G30" s="161"/>
+      <c r="H30" s="161"/>
+      <c r="I30" s="161"/>
+      <c r="J30" s="161"/>
+      <c r="K30" s="160"/>
+      <c r="L30" s="161"/>
+      <c r="M30" s="135">
         <f>SUM(M28:M29)</f>
         <v>0</v>
       </c>
-      <c r="N30" s="36"/>
-      <c r="O30" s="139">
-        <f>SUM(O28:O29)</f>
+      <c r="N30" s="118">
+        <f>SUM(N28:N29)</f>
         <v>0</v>
       </c>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="141">
-        <f>SUM(Q28:Q29)</f>
+      <c r="O30" s="36"/>
+      <c r="P30" s="119">
+        <f>SUM(P28:P29)</f>
         <v>0</v>
       </c>
-      <c r="R30" s="56"/>
-      <c r="S30" s="141">
-        <f>SUM(S28:S29)</f>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="121">
+        <f>SUM(R28:R29)</f>
         <v>0</v>
       </c>
-      <c r="T30" s="137">
+      <c r="S30" s="56"/>
+      <c r="T30" s="121">
         <f>SUM(T28:T29)</f>
         <v>0</v>
       </c>
-      <c r="U30" s="37"/>
-      <c r="W30" s="16"/>
-    </row>
-    <row r="31" spans="3:23" s="4" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="U30" s="148">
+        <f>SUM(U28:U29)</f>
+        <v>0</v>
+      </c>
+      <c r="V30" s="37"/>
+      <c r="X30" s="16"/>
+    </row>
+    <row r="31" spans="3:24" s="4" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="C31" s="15"/>
-      <c r="D31" s="156"/>
-      <c r="E31" s="156"/>
-      <c r="F31" s="156"/>
-      <c r="G31" s="156"/>
-      <c r="H31" s="156"/>
-      <c r="I31" s="156"/>
-      <c r="J31" s="156"/>
-      <c r="K31" s="156"/>
-      <c r="L31" s="159"/>
-      <c r="M31" s="138"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="140"/>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="141"/>
-      <c r="R31" s="56"/>
-      <c r="S31" s="141"/>
-      <c r="T31" s="137"/>
-      <c r="U31" s="37"/>
-      <c r="W31" s="16"/>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="D31" s="160"/>
+      <c r="E31" s="160"/>
+      <c r="F31" s="160"/>
+      <c r="G31" s="160"/>
+      <c r="H31" s="160"/>
+      <c r="I31" s="160"/>
+      <c r="J31" s="160"/>
+      <c r="K31" s="160"/>
+      <c r="L31" s="160"/>
+      <c r="M31" s="135"/>
+      <c r="N31" s="118"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="120"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="121"/>
+      <c r="S31" s="56"/>
+      <c r="T31" s="121"/>
+      <c r="U31" s="148"/>
+      <c r="V31" s="37"/>
+      <c r="X31" s="16"/>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C32" s="9"/>
-      <c r="M32" s="5"/>
-      <c r="R32" s="57"/>
-      <c r="W32" s="10"/>
-    </row>
-    <row r="33" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="N32" s="5"/>
+      <c r="S32" s="57"/>
+      <c r="X32" s="10"/>
+    </row>
+    <row r="33" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C33" s="9"/>
-      <c r="M33" s="5"/>
-      <c r="W33" s="10"/>
-    </row>
-    <row r="34" spans="3:32" ht="24" x14ac:dyDescent="0.2">
+      <c r="N33" s="5"/>
+      <c r="X33" s="10"/>
+    </row>
+    <row r="34" spans="3:33" ht="23.25" x14ac:dyDescent="0.25">
       <c r="C34" s="9"/>
       <c r="D34" s="78"/>
       <c r="E34" s="78"/>
@@ -2597,9 +2641,10 @@
       <c r="G34" s="79"/>
       <c r="H34" s="80"/>
       <c r="I34" s="80"/>
-      <c r="W34" s="10"/>
-    </row>
-    <row r="35" spans="3:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J34" s="80"/>
+      <c r="X34" s="10"/>
+    </row>
+    <row r="35" spans="3:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" s="9"/>
       <c r="D35" s="95"/>
       <c r="E35" s="95"/>
@@ -2607,12 +2652,13 @@
       <c r="G35" s="96"/>
       <c r="H35" s="81"/>
       <c r="I35" s="81"/>
-      <c r="Q35" s="3"/>
+      <c r="J35" s="81"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
-      <c r="W35" s="10"/>
-    </row>
-    <row r="36" spans="3:32" s="103" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T35" s="3"/>
+      <c r="X35" s="10"/>
+    </row>
+    <row r="36" spans="3:33" s="103" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="99"/>
       <c r="D36" s="100"/>
       <c r="E36" s="100"/>
@@ -2624,72 +2670,75 @@
       </c>
       <c r="H36" s="101"/>
       <c r="I36" s="101"/>
-      <c r="J36" s="102"/>
-      <c r="L36" s="104"/>
-      <c r="Q36" s="105"/>
+      <c r="J36" s="101"/>
+      <c r="K36" s="102"/>
+      <c r="M36" s="104"/>
       <c r="R36" s="105"/>
       <c r="S36" s="105"/>
-      <c r="T36" s="102"/>
-      <c r="W36" s="106"/>
-    </row>
-    <row r="37" spans="3:32" s="103" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T36" s="105"/>
+      <c r="U36" s="102"/>
+      <c r="X36" s="106"/>
+    </row>
+    <row r="37" spans="3:33" s="103" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="99"/>
-      <c r="D37" s="119" t="s">
+      <c r="D37" s="156" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="120"/>
+      <c r="E37" s="157"/>
       <c r="F37" s="107">
-        <f>+L30</f>
-        <v>0</v>
-      </c>
-      <c r="G37" s="108">
         <f>+M30</f>
         <v>0</v>
       </c>
+      <c r="G37" s="108">
+        <f>+N30</f>
+        <v>0</v>
+      </c>
       <c r="H37" s="101"/>
       <c r="I37" s="101"/>
-      <c r="J37" s="102"/>
-      <c r="L37" s="104"/>
-      <c r="T37" s="102"/>
-      <c r="U37" s="109"/>
-      <c r="W37" s="106"/>
-      <c r="AE37" s="110"/>
+      <c r="J37" s="101"/>
+      <c r="K37" s="102"/>
+      <c r="M37" s="104"/>
+      <c r="U37" s="102"/>
+      <c r="V37" s="109"/>
+      <c r="X37" s="106"/>
       <c r="AF37" s="110"/>
-    </row>
-    <row r="38" spans="3:32" s="103" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG37" s="110"/>
+    </row>
+    <row r="38" spans="3:33" s="103" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="99"/>
-      <c r="D38" s="119" t="s">
+      <c r="D38" s="156" t="s">
         <v>42</v>
       </c>
-      <c r="E38" s="120"/>
+      <c r="E38" s="157"/>
       <c r="F38" s="107">
-        <f>+T30</f>
+        <f>+U30</f>
         <v>0</v>
       </c>
       <c r="G38" s="108">
-        <f>F38/T22</f>
+        <f>F38/U22</f>
         <v>0</v>
       </c>
       <c r="H38" s="101"/>
       <c r="I38" s="101"/>
-      <c r="J38" s="102"/>
-      <c r="L38" s="104"/>
-      <c r="P38" s="136"/>
-      <c r="Q38" s="136"/>
-      <c r="R38" s="136"/>
-      <c r="S38" s="136"/>
-      <c r="T38" s="136"/>
-      <c r="U38" s="136"/>
-      <c r="W38" s="106"/>
-      <c r="AE38" s="110"/>
+      <c r="J38" s="101"/>
+      <c r="K38" s="102"/>
+      <c r="M38" s="104"/>
+      <c r="Q38" s="147"/>
+      <c r="R38" s="147"/>
+      <c r="S38" s="147"/>
+      <c r="T38" s="147"/>
+      <c r="U38" s="147"/>
+      <c r="V38" s="147"/>
+      <c r="X38" s="106"/>
       <c r="AF38" s="110"/>
-    </row>
-    <row r="39" spans="3:32" s="103" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG38" s="110"/>
+    </row>
+    <row r="39" spans="3:33" s="103" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" s="99"/>
-      <c r="D39" s="119" t="s">
+      <c r="D39" s="156" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="120"/>
+      <c r="E39" s="157"/>
       <c r="F39" s="107">
         <f>F37*5%</f>
         <v>0</v>
@@ -2700,17 +2749,18 @@
       </c>
       <c r="H39" s="101"/>
       <c r="I39" s="101"/>
-      <c r="J39" s="102"/>
-      <c r="L39" s="104"/>
-      <c r="T39" s="102"/>
-      <c r="W39" s="106"/>
-    </row>
-    <row r="40" spans="3:32" s="103" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J39" s="101"/>
+      <c r="K39" s="102"/>
+      <c r="M39" s="104"/>
+      <c r="U39" s="102"/>
+      <c r="X39" s="106"/>
+    </row>
+    <row r="40" spans="3:33" s="103" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="99"/>
-      <c r="D40" s="119" t="s">
+      <c r="D40" s="156" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="120"/>
+      <c r="E40" s="157"/>
       <c r="F40" s="107">
         <f>SUM(F37:F39)</f>
         <v>0</v>
@@ -2721,17 +2771,18 @@
       </c>
       <c r="H40" s="101"/>
       <c r="I40" s="101"/>
-      <c r="J40" s="102"/>
-      <c r="L40" s="104"/>
-      <c r="T40" s="102"/>
-      <c r="W40" s="106"/>
-    </row>
-    <row r="41" spans="3:32" s="103" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J40" s="101"/>
+      <c r="K40" s="102"/>
+      <c r="M40" s="104"/>
+      <c r="U40" s="102"/>
+      <c r="X40" s="106"/>
+    </row>
+    <row r="41" spans="3:33" s="103" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="99"/>
-      <c r="D41" s="121" t="s">
+      <c r="D41" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="122"/>
+      <c r="E41" s="152"/>
       <c r="F41" s="107">
         <f>F37*30%</f>
         <v>0</v>
@@ -2742,17 +2793,18 @@
       </c>
       <c r="H41" s="111"/>
       <c r="I41" s="111"/>
-      <c r="J41" s="102"/>
-      <c r="L41" s="104"/>
-      <c r="T41" s="102"/>
-      <c r="W41" s="106"/>
-    </row>
-    <row r="42" spans="3:32" s="103" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J41" s="111"/>
+      <c r="K41" s="102"/>
+      <c r="M41" s="104"/>
+      <c r="U41" s="102"/>
+      <c r="X41" s="106"/>
+    </row>
+    <row r="42" spans="3:33" s="103" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C42" s="99"/>
-      <c r="D42" s="121" t="s">
+      <c r="D42" s="151" t="s">
         <v>45</v>
       </c>
-      <c r="E42" s="122"/>
+      <c r="E42" s="152"/>
       <c r="F42" s="107">
         <f>F37-F41</f>
         <v>0</v>
@@ -2763,17 +2815,18 @@
       </c>
       <c r="H42" s="111"/>
       <c r="I42" s="111"/>
-      <c r="J42" s="102"/>
-      <c r="L42" s="104"/>
-      <c r="T42" s="102"/>
-      <c r="W42" s="106"/>
-    </row>
-    <row r="43" spans="3:32" s="103" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J42" s="111"/>
+      <c r="K42" s="102"/>
+      <c r="M42" s="104"/>
+      <c r="U42" s="102"/>
+      <c r="X42" s="106"/>
+    </row>
+    <row r="43" spans="3:33" s="103" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43" s="99"/>
-      <c r="D43" s="121" t="s">
+      <c r="D43" s="151" t="s">
         <v>46</v>
       </c>
-      <c r="E43" s="122"/>
+      <c r="E43" s="152"/>
       <c r="F43" s="107">
         <f>F38+F39</f>
         <v>0</v>
@@ -2784,56 +2837,57 @@
       </c>
       <c r="H43" s="100"/>
       <c r="I43" s="100"/>
-      <c r="J43" s="102"/>
-      <c r="L43" s="104"/>
-      <c r="T43" s="102"/>
-      <c r="W43" s="106"/>
-    </row>
-    <row r="44" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="J43" s="100"/>
+      <c r="K43" s="102"/>
+      <c r="M43" s="104"/>
+      <c r="U43" s="102"/>
+      <c r="X43" s="106"/>
+    </row>
+    <row r="44" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C44" s="9"/>
       <c r="D44" s="57"/>
       <c r="E44" s="57"/>
       <c r="F44" s="57"/>
       <c r="G44" s="57"/>
-      <c r="U44" s="1"/>
       <c r="V44" s="1"/>
-      <c r="W44" s="10"/>
-    </row>
-    <row r="45" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="W44" s="1"/>
+      <c r="X44" s="10"/>
+    </row>
+    <row r="45" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C45" s="9"/>
-      <c r="U45" s="1"/>
       <c r="V45" s="1"/>
-      <c r="W45" s="10"/>
-    </row>
-    <row r="46" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="W45" s="1"/>
+      <c r="X45" s="10"/>
+    </row>
+    <row r="46" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C46" s="9"/>
-      <c r="U46" s="1"/>
       <c r="V46" s="1"/>
-      <c r="W46" s="10"/>
-    </row>
-    <row r="47" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="W46" s="1"/>
+      <c r="X46" s="10"/>
+    </row>
+    <row r="47" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C47" s="9"/>
-      <c r="D47" s="123" t="s">
+      <c r="D47" s="153" t="s">
         <v>47</v>
       </c>
-      <c r="E47" s="123"/>
-      <c r="F47" s="123"/>
-      <c r="G47" s="123"/>
-      <c r="U47" s="1"/>
+      <c r="E47" s="153"/>
+      <c r="F47" s="153"/>
+      <c r="G47" s="153"/>
       <c r="V47" s="1"/>
-      <c r="W47" s="10"/>
-    </row>
-    <row r="48" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="W47" s="1"/>
+      <c r="X47" s="10"/>
+    </row>
+    <row r="48" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C48" s="9"/>
-      <c r="D48" s="124"/>
-      <c r="E48" s="124"/>
-      <c r="F48" s="124"/>
-      <c r="G48" s="124"/>
-      <c r="U48" s="1"/>
+      <c r="D48" s="154"/>
+      <c r="E48" s="154"/>
+      <c r="F48" s="154"/>
+      <c r="G48" s="154"/>
       <c r="V48" s="1"/>
-      <c r="W48" s="10"/>
-    </row>
-    <row r="49" spans="3:23" ht="21" x14ac:dyDescent="0.2">
+      <c r="W48" s="1"/>
+      <c r="X48" s="10"/>
+    </row>
+    <row r="49" spans="3:24" ht="21" x14ac:dyDescent="0.25">
       <c r="C49" s="9"/>
       <c r="D49" s="112" t="s">
         <v>48</v>
@@ -2841,81 +2895,81 @@
       <c r="E49" s="112"/>
       <c r="F49" s="112"/>
       <c r="G49" s="113"/>
-      <c r="U49" s="1"/>
       <c r="V49" s="1"/>
-      <c r="W49" s="10"/>
-    </row>
-    <row r="50" spans="3:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="W49" s="1"/>
+      <c r="X49" s="10"/>
+    </row>
+    <row r="50" spans="3:24" ht="21" x14ac:dyDescent="0.35">
       <c r="C50" s="9"/>
-      <c r="D50" s="117" t="s">
+      <c r="D50" s="149" t="s">
         <v>49</v>
       </c>
-      <c r="E50" s="117"/>
+      <c r="E50" s="149"/>
       <c r="F50" s="44" t="s">
         <v>50</v>
       </c>
       <c r="G50" s="114"/>
-      <c r="U50" s="1"/>
       <c r="V50" s="1"/>
-      <c r="W50" s="10"/>
-    </row>
-    <row r="51" spans="3:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="W50" s="1"/>
+      <c r="X50" s="10"/>
+    </row>
+    <row r="51" spans="3:24" ht="21" x14ac:dyDescent="0.35">
       <c r="C51" s="9"/>
-      <c r="D51" s="117" t="s">
+      <c r="D51" s="149" t="s">
         <v>51</v>
       </c>
-      <c r="E51" s="117"/>
+      <c r="E51" s="149"/>
       <c r="F51" s="44" t="s">
         <v>52</v>
       </c>
       <c r="G51" s="114"/>
-      <c r="U51" s="1"/>
       <c r="V51" s="1"/>
-      <c r="W51" s="10"/>
-    </row>
-    <row r="52" spans="3:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="W51" s="1"/>
+      <c r="X51" s="10"/>
+    </row>
+    <row r="52" spans="3:24" ht="21" x14ac:dyDescent="0.35">
       <c r="C52" s="9"/>
-      <c r="D52" s="116" t="s">
+      <c r="D52" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="E52" s="116"/>
+      <c r="E52" s="150"/>
       <c r="F52" s="44" t="s">
         <v>54</v>
       </c>
       <c r="G52" s="114"/>
-      <c r="U52" s="1"/>
       <c r="V52" s="1"/>
-      <c r="W52" s="10"/>
-    </row>
-    <row r="53" spans="3:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="W52" s="1"/>
+      <c r="X52" s="10"/>
+    </row>
+    <row r="53" spans="3:24" ht="21" x14ac:dyDescent="0.35">
       <c r="C53" s="9"/>
-      <c r="D53" s="117" t="s">
+      <c r="D53" s="149" t="s">
         <v>55</v>
       </c>
-      <c r="E53" s="117"/>
+      <c r="E53" s="149"/>
       <c r="F53" s="44" t="s">
         <v>56</v>
       </c>
       <c r="G53" s="114"/>
-      <c r="U53" s="1"/>
       <c r="V53" s="1"/>
-      <c r="W53" s="10"/>
-    </row>
-    <row r="54" spans="3:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="W53" s="1"/>
+      <c r="X53" s="10"/>
+    </row>
+    <row r="54" spans="3:24" ht="21" x14ac:dyDescent="0.35">
       <c r="C54" s="9"/>
-      <c r="D54" s="117" t="s">
+      <c r="D54" s="149" t="s">
         <v>57</v>
       </c>
-      <c r="E54" s="117"/>
+      <c r="E54" s="149"/>
       <c r="F54" s="44" t="s">
         <v>56</v>
       </c>
       <c r="G54" s="114"/>
-      <c r="U54" s="1"/>
       <c r="V54" s="1"/>
-      <c r="W54" s="10"/>
-    </row>
-    <row r="55" spans="3:23" ht="21" x14ac:dyDescent="0.2">
+      <c r="W54" s="1"/>
+      <c r="X54" s="10"/>
+    </row>
+    <row r="55" spans="3:24" ht="21" x14ac:dyDescent="0.25">
       <c r="C55" s="9"/>
       <c r="D55" s="112" t="s">
         <v>58</v>
@@ -2923,81 +2977,81 @@
       <c r="E55" s="112"/>
       <c r="F55" s="112"/>
       <c r="G55" s="113"/>
-      <c r="U55" s="1"/>
       <c r="V55" s="1"/>
-      <c r="W55" s="10"/>
-    </row>
-    <row r="56" spans="3:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="W55" s="1"/>
+      <c r="X55" s="10"/>
+    </row>
+    <row r="56" spans="3:24" ht="21" x14ac:dyDescent="0.35">
       <c r="C56" s="9"/>
-      <c r="D56" s="117" t="s">
+      <c r="D56" s="149" t="s">
         <v>49</v>
       </c>
-      <c r="E56" s="117"/>
+      <c r="E56" s="149"/>
       <c r="F56" s="115" t="s">
         <v>59</v>
       </c>
       <c r="G56" s="114"/>
-      <c r="U56" s="1"/>
       <c r="V56" s="1"/>
-      <c r="W56" s="10"/>
-    </row>
-    <row r="57" spans="3:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="W56" s="1"/>
+      <c r="X56" s="10"/>
+    </row>
+    <row r="57" spans="3:24" ht="21" x14ac:dyDescent="0.35">
       <c r="C57" s="9"/>
-      <c r="D57" s="117" t="s">
+      <c r="D57" s="149" t="s">
         <v>51</v>
       </c>
-      <c r="E57" s="117"/>
+      <c r="E57" s="149"/>
       <c r="F57" s="115" t="s">
         <v>60</v>
       </c>
       <c r="G57" s="114"/>
-      <c r="U57" s="1"/>
       <c r="V57" s="1"/>
-      <c r="W57" s="10"/>
-    </row>
-    <row r="58" spans="3:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="W57" s="1"/>
+      <c r="X57" s="10"/>
+    </row>
+    <row r="58" spans="3:24" ht="21" x14ac:dyDescent="0.35">
       <c r="C58" s="9"/>
-      <c r="D58" s="116" t="s">
+      <c r="D58" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="E58" s="116"/>
+      <c r="E58" s="150"/>
       <c r="F58" s="44" t="s">
         <v>61</v>
       </c>
       <c r="G58" s="114"/>
-      <c r="U58" s="1"/>
       <c r="V58" s="1"/>
-      <c r="W58" s="10"/>
-    </row>
-    <row r="59" spans="3:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="W58" s="1"/>
+      <c r="X58" s="10"/>
+    </row>
+    <row r="59" spans="3:24" ht="21" x14ac:dyDescent="0.35">
       <c r="C59" s="9"/>
-      <c r="D59" s="117" t="s">
+      <c r="D59" s="149" t="s">
         <v>55</v>
       </c>
-      <c r="E59" s="117"/>
+      <c r="E59" s="149"/>
       <c r="F59" s="44" t="s">
         <v>62</v>
       </c>
       <c r="G59" s="114"/>
-      <c r="U59" s="1"/>
       <c r="V59" s="1"/>
-      <c r="W59" s="10"/>
-    </row>
-    <row r="60" spans="3:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="W59" s="1"/>
+      <c r="X59" s="10"/>
+    </row>
+    <row r="60" spans="3:24" ht="21" x14ac:dyDescent="0.35">
       <c r="C60" s="9"/>
-      <c r="D60" s="117" t="s">
+      <c r="D60" s="149" t="s">
         <v>57</v>
       </c>
-      <c r="E60" s="117"/>
+      <c r="E60" s="149"/>
       <c r="F60" s="44" t="s">
         <v>63</v>
       </c>
       <c r="G60" s="114"/>
-      <c r="U60" s="1"/>
       <c r="V60" s="1"/>
-      <c r="W60" s="10"/>
-    </row>
-    <row r="61" spans="3:23" ht="21" x14ac:dyDescent="0.2">
+      <c r="W60" s="1"/>
+      <c r="X60" s="10"/>
+    </row>
+    <row r="61" spans="3:24" ht="21" x14ac:dyDescent="0.25">
       <c r="C61" s="9"/>
       <c r="D61" s="112" t="s">
         <v>64</v>
@@ -3005,72 +3059,72 @@
       <c r="E61" s="112"/>
       <c r="F61" s="112"/>
       <c r="G61" s="113"/>
-      <c r="U61" s="1"/>
       <c r="V61" s="1"/>
-      <c r="W61" s="10"/>
-    </row>
-    <row r="62" spans="3:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="W61" s="1"/>
+      <c r="X61" s="10"/>
+    </row>
+    <row r="62" spans="3:24" ht="21" x14ac:dyDescent="0.35">
       <c r="C62" s="9"/>
-      <c r="D62" s="116" t="s">
+      <c r="D62" s="150" t="s">
         <v>65</v>
       </c>
-      <c r="E62" s="116"/>
+      <c r="E62" s="150"/>
       <c r="F62" s="115" t="s">
         <v>66</v>
       </c>
       <c r="G62" s="114"/>
-      <c r="U62" s="1"/>
       <c r="V62" s="1"/>
-      <c r="W62" s="10"/>
-    </row>
-    <row r="63" spans="3:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="W62" s="1"/>
+      <c r="X62" s="10"/>
+    </row>
+    <row r="63" spans="3:24" ht="21" x14ac:dyDescent="0.35">
       <c r="C63" s="9"/>
-      <c r="D63" s="116" t="s">
+      <c r="D63" s="150" t="s">
         <v>67</v>
       </c>
-      <c r="E63" s="116"/>
+      <c r="E63" s="150"/>
       <c r="F63" s="44" t="s">
         <v>68</v>
       </c>
       <c r="G63" s="114"/>
-      <c r="U63" s="1"/>
       <c r="V63" s="1"/>
-      <c r="W63" s="10"/>
-    </row>
-    <row r="64" spans="3:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="W63" s="1"/>
+      <c r="X63" s="10"/>
+    </row>
+    <row r="64" spans="3:24" ht="21" x14ac:dyDescent="0.35">
       <c r="C64" s="9"/>
-      <c r="D64" s="116" t="s">
+      <c r="D64" s="150" t="s">
         <v>69</v>
       </c>
-      <c r="E64" s="116"/>
+      <c r="E64" s="150"/>
       <c r="F64" s="44" t="s">
         <v>70</v>
       </c>
       <c r="G64" s="114"/>
-      <c r="U64" s="1"/>
       <c r="V64" s="1"/>
-      <c r="W64" s="10"/>
-    </row>
-    <row r="65" spans="3:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="W64" s="1"/>
+      <c r="X64" s="10"/>
+    </row>
+    <row r="65" spans="3:24" ht="21" x14ac:dyDescent="0.35">
       <c r="C65" s="9"/>
-      <c r="D65" s="116" t="s">
+      <c r="D65" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="E65" s="116"/>
+      <c r="E65" s="150"/>
       <c r="F65" s="44" t="s">
         <v>61</v>
       </c>
       <c r="G65" s="114"/>
-      <c r="U65" s="1"/>
       <c r="V65" s="1"/>
-      <c r="W65" s="10"/>
-    </row>
-    <row r="66" spans="3:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W65" s="1"/>
+      <c r="X65" s="10"/>
+    </row>
+    <row r="66" spans="3:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C66" s="9"/>
-      <c r="D66" s="117" t="s">
+      <c r="D66" s="149" t="s">
         <v>55</v>
       </c>
-      <c r="E66" s="117"/>
+      <c r="E66" s="149"/>
       <c r="F66" s="44" t="s">
         <v>62</v>
       </c>
@@ -3078,28 +3132,30 @@
       <c r="H66" s="92"/>
       <c r="I66" s="92"/>
       <c r="J66" s="92"/>
-      <c r="U66" s="1"/>
+      <c r="K66" s="92"/>
       <c r="V66" s="1"/>
-      <c r="W66" s="10"/>
-    </row>
-    <row r="67" spans="3:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="W66" s="1"/>
+      <c r="X66" s="10"/>
+    </row>
+    <row r="67" spans="3:24" ht="21" x14ac:dyDescent="0.35">
       <c r="C67" s="9"/>
-      <c r="D67" s="117" t="s">
+      <c r="D67" s="149" t="s">
         <v>57</v>
       </c>
-      <c r="E67" s="117"/>
+      <c r="E67" s="149"/>
       <c r="F67" s="44" t="s">
         <v>63</v>
       </c>
       <c r="G67" s="114"/>
       <c r="H67" s="57"/>
       <c r="I67" s="57"/>
-      <c r="J67" s="93"/>
-      <c r="U67" s="1"/>
+      <c r="J67" s="57"/>
+      <c r="K67" s="93"/>
       <c r="V67" s="1"/>
-      <c r="W67" s="10"/>
-    </row>
-    <row r="68" spans="3:23" ht="21" x14ac:dyDescent="0.2">
+      <c r="W67" s="1"/>
+      <c r="X67" s="10"/>
+    </row>
+    <row r="68" spans="3:24" ht="21" x14ac:dyDescent="0.25">
       <c r="C68" s="9"/>
       <c r="D68" s="94"/>
       <c r="E68" s="94"/>
@@ -3108,21 +3164,22 @@
       <c r="H68" s="94"/>
       <c r="I68" s="94"/>
       <c r="J68" s="94"/>
-      <c r="U68" s="1"/>
+      <c r="K68" s="94"/>
       <c r="V68" s="1"/>
-      <c r="W68" s="25"/>
-    </row>
-    <row r="69" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W68" s="1"/>
+      <c r="X68" s="25"/>
+    </row>
+    <row r="69" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C69" s="9"/>
-      <c r="U69" s="1"/>
       <c r="V69" s="1"/>
-      <c r="W69" s="10"/>
-    </row>
-    <row r="70" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W69" s="1"/>
+      <c r="X69" s="10"/>
+    </row>
+    <row r="70" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C70" s="9"/>
-      <c r="W70" s="10"/>
-    </row>
-    <row r="71" spans="3:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="X70" s="10"/>
+    </row>
+    <row r="71" spans="3:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C71" s="11"/>
       <c r="D71" s="17"/>
       <c r="E71" s="17"/>
@@ -3130,72 +3187,24 @@
       <c r="G71" s="17"/>
       <c r="H71" s="17"/>
       <c r="I71" s="17"/>
-      <c r="J71" s="18"/>
-      <c r="K71" s="17"/>
-      <c r="L71" s="51"/>
-      <c r="M71" s="17"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="18"/>
+      <c r="L71" s="17"/>
+      <c r="M71" s="51"/>
       <c r="N71" s="17"/>
       <c r="O71" s="17"/>
       <c r="P71" s="17"/>
       <c r="Q71" s="17"/>
       <c r="R71" s="17"/>
       <c r="S71" s="17"/>
-      <c r="T71" s="18"/>
-      <c r="U71" s="22"/>
+      <c r="T71" s="17"/>
+      <c r="U71" s="18"/>
       <c r="V71" s="22"/>
-      <c r="W71" s="12"/>
+      <c r="W71" s="22"/>
+      <c r="X71" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="R17:U17"/>
-    <mergeCell ref="R18:U18"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="R20:U20"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="D26:T26"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="S30:S31"/>
-    <mergeCell ref="R9:U10"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="N9:Q10"/>
-    <mergeCell ref="P38:U38"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D47:G48"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F6:I7"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F9:G10"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="D30:K31"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
     <mergeCell ref="D65:E65"/>
     <mergeCell ref="D66:E66"/>
     <mergeCell ref="D67:E67"/>
@@ -3204,6 +3213,55 @@
     <mergeCell ref="D62:E62"/>
     <mergeCell ref="D63:E63"/>
     <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F6:J7"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F9:G10"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="D30:L31"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D47:G48"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="S9:V10"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="O9:R10"/>
+    <mergeCell ref="Q38:V38"/>
+    <mergeCell ref="U30:U31"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="R30:R31"/>
+    <mergeCell ref="S17:V17"/>
+    <mergeCell ref="S18:V18"/>
+    <mergeCell ref="S19:V19"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="D26:U26"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="T30:T31"/>
   </mergeCells>
   <pageMargins left="0.39" right="0.49" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="26" orientation="portrait" r:id="rId1"/>

--- a/assets/downloads/agente_compra/TRADING-ORDEN-PERU.xlsx
+++ b/assets/downloads/agente_compra/TRADING-ORDEN-PERU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\probusinees-intranet\assets\downloads\agente_compra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1639936-3240-4D82-858E-A250D3DB9621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4AAE9C-6743-4562-8205-6582FB3068F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="COD" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">COD!$C$1:$X$71</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">COD!$C$1:$W$71</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
     <author>Miguel Villegas Perez</author>
   </authors>
   <commentList>
-    <comment ref="S9" authorId="0" shapeId="0" xr:uid="{27DE1C78-1ADE-134C-8B83-3D0121131AA3}">
+    <comment ref="R9" authorId="0" shapeId="0" xr:uid="{27DE1C78-1ADE-134C-8B83-3D0121131AA3}">
       <text>
         <r>
           <rPr>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
   <si>
     <t>CARACTERISTICAS</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>CANTIDAD TOTAL</t>
   </si>
   <si>
     <t>TOTAL CAJAS</t>
@@ -612,7 +609,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -633,19 +630,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -982,12 +966,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1005,41 +1019,41 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1069,44 +1083,44 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1118,64 +1132,61 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="3" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="3" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1190,16 +1201,13 @@
     <xf numFmtId="168" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="13" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="13" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="13" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1211,13 +1219,13 @@
     <xf numFmtId="168" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="13" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1235,40 +1243,40 @@
     <xf numFmtId="170" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="20" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="20" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1280,10 +1288,10 @@
     <xf numFmtId="168" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="20" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1296,151 +1304,160 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="13" fillId="2" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1849,10 +1866,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="C1:AG71"/>
+  <dimension ref="C1:AF71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1863,22 +1880,22 @@
     <col min="5" max="5" width="47" style="1" customWidth="1"/>
     <col min="6" max="6" width="37.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="36.625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="20.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.875" style="6" customWidth="1"/>
-    <col min="12" max="12" width="21.125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="21.125" style="47" customWidth="1"/>
-    <col min="14" max="14" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.5" style="1" customWidth="1"/>
-    <col min="16" max="17" width="16" style="1" customWidth="1"/>
-    <col min="18" max="20" width="20.375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="21.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="26" customWidth="1"/>
-    <col min="23" max="23" width="13.5" customWidth="1"/>
-    <col min="33" max="33" width="20" customWidth="1"/>
+    <col min="8" max="8" width="20.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="21.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.125" style="47" customWidth="1"/>
+    <col min="13" max="13" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.5" style="1" customWidth="1"/>
+    <col min="15" max="16" width="16" style="1" customWidth="1"/>
+    <col min="17" max="19" width="20.375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="21.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="26" customWidth="1"/>
+    <col min="22" max="22" width="13.5" customWidth="1"/>
+    <col min="32" max="32" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C1" s="7"/>
       <c r="D1" s="13"/>
       <c r="E1" s="21"/>
@@ -1886,31 +1903,30 @@
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="46"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="13"/>
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
       <c r="P1" s="13"/>
       <c r="Q1" s="13"/>
       <c r="R1" s="13"/>
       <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="21"/>
       <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="8"/>
-    </row>
-    <row r="2" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="W1" s="8"/>
+    </row>
+    <row r="2" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C2" s="9"/>
-      <c r="X2" s="10"/>
-    </row>
-    <row r="3" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="W2" s="10"/>
+    </row>
+    <row r="3" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C3" s="9"/>
-      <c r="X3" s="10"/>
-    </row>
-    <row r="4" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="W3" s="10"/>
+    </row>
+    <row r="4" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C4" s="9"/>
       <c r="F4"/>
       <c r="G4"/>
@@ -1918,145 +1934,138 @@
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4" s="48"/>
-      <c r="X4" s="10"/>
-    </row>
-    <row r="5" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="L4" s="48"/>
+      <c r="W4" s="10"/>
+    </row>
+    <row r="5" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C5" s="9"/>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5" s="48"/>
-      <c r="X5" s="10"/>
-    </row>
-    <row r="6" spans="3:24" ht="92.25" x14ac:dyDescent="0.25">
+      <c r="L5" s="48"/>
+      <c r="W5" s="10"/>
+    </row>
+    <row r="6" spans="3:23" ht="92.25" x14ac:dyDescent="0.25">
       <c r="C6" s="9"/>
       <c r="D6" s="26"/>
       <c r="E6" s="27"/>
-      <c r="F6" s="155" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="155"/>
-      <c r="H6" s="155"/>
-      <c r="I6" s="155"/>
-      <c r="J6" s="155"/>
+      <c r="F6" s="122" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6"/>
       <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="3"/>
-      <c r="O6"/>
-      <c r="V6" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="X6" s="10"/>
-    </row>
-    <row r="7" spans="3:24" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="L6" s="48"/>
+      <c r="M6" s="3"/>
+      <c r="N6"/>
+      <c r="U6" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="W6" s="10"/>
+    </row>
+    <row r="7" spans="3:23" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" s="9"/>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
-      <c r="F7" s="155"/>
-      <c r="G7" s="155"/>
-      <c r="H7" s="155"/>
-      <c r="I7" s="155"/>
-      <c r="J7" s="155"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7"/>
       <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7"/>
       <c r="N7"/>
-      <c r="O7"/>
-      <c r="X7" s="10"/>
-    </row>
-    <row r="8" spans="3:24" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="W7" s="10"/>
+    </row>
+    <row r="8" spans="3:23" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="9"/>
       <c r="D8" s="34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="32"/>
       <c r="F8" s="34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8" s="30"/>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="140" t="s">
-        <v>17</v>
-      </c>
-      <c r="P8" s="140"/>
-      <c r="Q8" s="140"/>
-      <c r="R8" s="140"/>
-      <c r="S8" s="140" t="s">
+      <c r="K8"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="146" t="s">
         <v>16</v>
       </c>
-      <c r="T8" s="140"/>
-      <c r="U8" s="140"/>
-      <c r="V8" s="140"/>
-      <c r="X8" s="10"/>
-    </row>
-    <row r="9" spans="3:24" ht="30.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="O8" s="146"/>
+      <c r="P8" s="146"/>
+      <c r="Q8" s="146"/>
+      <c r="R8" s="146" t="s">
+        <v>15</v>
+      </c>
+      <c r="S8" s="146"/>
+      <c r="T8" s="146"/>
+      <c r="U8" s="146"/>
+      <c r="W8" s="10"/>
+    </row>
+    <row r="9" spans="3:23" ht="30.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C9" s="9"/>
       <c r="D9" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="32"/>
-      <c r="F9" s="158" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="158"/>
+      <c r="F9" s="125" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="125"/>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="141" t="s">
-        <v>22</v>
-      </c>
-      <c r="P9" s="142"/>
-      <c r="Q9" s="142"/>
-      <c r="R9" s="143"/>
-      <c r="S9" s="136">
+      <c r="K9"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="147" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="148"/>
+      <c r="P9" s="148"/>
+      <c r="Q9" s="149"/>
+      <c r="R9" s="142">
         <v>45470</v>
       </c>
-      <c r="T9" s="136"/>
-      <c r="U9" s="136"/>
-      <c r="V9" s="137"/>
-      <c r="X9" s="10"/>
-    </row>
-    <row r="10" spans="3:24" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="S9" s="142"/>
+      <c r="T9" s="142"/>
+      <c r="U9" s="143"/>
+      <c r="W9" s="10"/>
+    </row>
+    <row r="10" spans="3:23" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C10" s="9"/>
       <c r="D10" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" s="32"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="158"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
       <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="144"/>
-      <c r="P10" s="145"/>
-      <c r="Q10" s="145"/>
-      <c r="R10" s="146"/>
-      <c r="S10" s="138"/>
-      <c r="T10" s="138"/>
-      <c r="U10" s="138"/>
-      <c r="V10" s="139"/>
-      <c r="X10" s="10"/>
-    </row>
-    <row r="11" spans="3:24" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="K10"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="150"/>
+      <c r="O10" s="137"/>
+      <c r="P10" s="137"/>
+      <c r="Q10" s="151"/>
+      <c r="R10" s="144"/>
+      <c r="S10" s="144"/>
+      <c r="T10" s="144"/>
+      <c r="U10" s="145"/>
+      <c r="W10" s="10"/>
+    </row>
+    <row r="11" spans="3:23" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" s="9"/>
       <c r="E11" s="30"/>
       <c r="F11" s="30"/>
@@ -2065,18 +2074,17 @@
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="3"/>
-      <c r="O11"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="3"/>
+      <c r="N11"/>
+      <c r="P11"/>
       <c r="Q11"/>
       <c r="R11"/>
       <c r="S11"/>
-      <c r="T11"/>
-      <c r="U11" s="52"/>
-      <c r="X11" s="10"/>
-    </row>
-    <row r="12" spans="3:24" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="T11" s="52"/>
+      <c r="W11" s="10"/>
+    </row>
+    <row r="12" spans="3:23" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" s="9"/>
       <c r="E12" s="30"/>
       <c r="F12" s="30"/>
@@ -2085,43 +2093,41 @@
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="3"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="3"/>
+      <c r="N12"/>
       <c r="O12"/>
       <c r="P12"/>
-      <c r="Q12"/>
+      <c r="Q12" s="23"/>
       <c r="R12" s="23"/>
       <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="53"/>
-      <c r="X12" s="10"/>
-    </row>
-    <row r="13" spans="3:24" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="T12" s="53"/>
+      <c r="W12" s="10"/>
+    </row>
+    <row r="13" spans="3:23" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" s="9"/>
-      <c r="D13" s="162" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="163"/>
+      <c r="D13" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="134"/>
       <c r="F13" s="30"/>
       <c r="G13" s="30"/>
       <c r="H13"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="3"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="3"/>
+      <c r="N13"/>
       <c r="O13"/>
       <c r="P13"/>
-      <c r="Q13"/>
+      <c r="Q13" s="23"/>
       <c r="R13" s="23"/>
       <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="53"/>
-      <c r="X13" s="10"/>
-    </row>
-    <row r="14" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="T13" s="53"/>
+      <c r="W13" s="10"/>
+    </row>
+    <row r="14" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C14" s="9"/>
       <c r="E14"/>
       <c r="F14"/>
@@ -2130,19 +2136,18 @@
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14"/>
       <c r="N14"/>
       <c r="O14"/>
       <c r="P14"/>
       <c r="Q14"/>
       <c r="R14"/>
       <c r="S14"/>
-      <c r="T14"/>
-      <c r="U14" s="52"/>
-      <c r="X14" s="10"/>
-    </row>
-    <row r="15" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="T14" s="52"/>
+      <c r="W14" s="10"/>
+    </row>
+    <row r="15" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C15" s="9"/>
       <c r="D15"/>
       <c r="E15"/>
@@ -2152,19 +2157,18 @@
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15"/>
       <c r="N15"/>
       <c r="O15"/>
       <c r="P15"/>
       <c r="Q15"/>
       <c r="R15"/>
       <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15" s="52"/>
-      <c r="X15" s="10"/>
-    </row>
-    <row r="16" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="T15" s="52"/>
+      <c r="W15" s="10"/>
+    </row>
+    <row r="16" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C16" s="9"/>
       <c r="D16"/>
       <c r="E16"/>
@@ -2174,155 +2178,148 @@
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16"/>
       <c r="N16"/>
       <c r="O16"/>
       <c r="P16"/>
       <c r="Q16"/>
       <c r="R16"/>
       <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16" s="52"/>
-      <c r="X16" s="10"/>
-    </row>
-    <row r="17" spans="3:24" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="T16" s="52"/>
+      <c r="W16" s="10"/>
+    </row>
+    <row r="17" spans="3:23" ht="31.5" x14ac:dyDescent="0.5">
       <c r="C17" s="9"/>
-      <c r="D17" s="132" t="s">
+      <c r="D17" s="162" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="163"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="116"/>
+      <c r="I17" s="85"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17" s="48"/>
+      <c r="O17" s="162" t="s">
+        <v>13</v>
+      </c>
+      <c r="P17" s="163"/>
+      <c r="Q17" s="163"/>
+      <c r="R17" s="136"/>
+      <c r="S17" s="136"/>
+      <c r="T17" s="136"/>
+      <c r="U17" s="158"/>
+      <c r="W17" s="10"/>
+    </row>
+    <row r="18" spans="3:23" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="C18" s="9"/>
+      <c r="D18" s="126" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="127"/>
+      <c r="F18" s="166"/>
+      <c r="G18" s="159"/>
+      <c r="H18" s="116"/>
+      <c r="I18" s="85"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18" s="48"/>
+      <c r="O18" s="126" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="127"/>
+      <c r="Q18" s="127"/>
+      <c r="R18" s="135"/>
+      <c r="S18" s="135"/>
+      <c r="T18" s="135"/>
+      <c r="U18" s="159"/>
+      <c r="W18" s="10"/>
+    </row>
+    <row r="19" spans="3:23" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="C19" s="9"/>
+      <c r="D19" s="126" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="127"/>
+      <c r="F19" s="166"/>
+      <c r="G19" s="159"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="85"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19" s="48"/>
+      <c r="O19" s="126" t="s">
+        <v>38</v>
+      </c>
+      <c r="P19" s="127"/>
+      <c r="Q19" s="127"/>
+      <c r="R19" s="135"/>
+      <c r="S19" s="135"/>
+      <c r="T19" s="135"/>
+      <c r="U19" s="159"/>
+      <c r="W19" s="10"/>
+    </row>
+    <row r="20" spans="3:23" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="C20" s="9"/>
+      <c r="D20" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="133"/>
-      <c r="F17" s="122"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="165"/>
-      <c r="J17" s="87"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17" s="48"/>
-      <c r="P17" s="132" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q17" s="133"/>
-      <c r="R17" s="133"/>
-      <c r="S17" s="122"/>
-      <c r="T17" s="122"/>
-      <c r="U17" s="122"/>
-      <c r="V17" s="123"/>
-      <c r="X17" s="10"/>
-    </row>
-    <row r="18" spans="3:24" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="C18" s="9"/>
-      <c r="D18" s="130" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="131"/>
-      <c r="F18" s="124"/>
-      <c r="G18" s="124"/>
-      <c r="H18" s="125"/>
-      <c r="I18" s="165"/>
-      <c r="J18" s="87"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18" s="48"/>
-      <c r="P18" s="130" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q18" s="131"/>
-      <c r="R18" s="131"/>
-      <c r="S18" s="124"/>
-      <c r="T18" s="124"/>
-      <c r="U18" s="124"/>
-      <c r="V18" s="125"/>
-      <c r="X18" s="10"/>
-    </row>
-    <row r="19" spans="3:24" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="C19" s="9"/>
-      <c r="D19" s="130" t="s">
+      <c r="E20" s="132"/>
+      <c r="F20" s="137"/>
+      <c r="G20" s="167"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="84"/>
+      <c r="K20"/>
+      <c r="L20" s="48"/>
+      <c r="O20" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="131"/>
-      <c r="F19" s="124"/>
-      <c r="G19" s="124"/>
-      <c r="H19" s="125"/>
-      <c r="I19" s="165"/>
-      <c r="J19" s="87"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19" s="48"/>
-      <c r="P19" s="130" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q19" s="131"/>
-      <c r="R19" s="131"/>
-      <c r="S19" s="124"/>
-      <c r="T19" s="124"/>
-      <c r="U19" s="124"/>
-      <c r="V19" s="125"/>
-      <c r="X19" s="10"/>
-    </row>
-    <row r="20" spans="3:24" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="C20" s="9"/>
-      <c r="D20" s="128" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="129"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="164"/>
-      <c r="I20" s="166"/>
-      <c r="J20" s="86"/>
-      <c r="L20"/>
-      <c r="M20" s="48"/>
-      <c r="P20" s="128" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q20" s="129"/>
-      <c r="R20" s="129"/>
-      <c r="S20" s="126"/>
-      <c r="T20" s="126"/>
-      <c r="U20" s="126"/>
-      <c r="V20" s="127"/>
-      <c r="X20" s="10"/>
-    </row>
-    <row r="21" spans="3:24" ht="21" x14ac:dyDescent="0.35">
+      <c r="P20" s="132"/>
+      <c r="Q20" s="132"/>
+      <c r="R20" s="160"/>
+      <c r="S20" s="160"/>
+      <c r="T20" s="160"/>
+      <c r="U20" s="161"/>
+      <c r="W20" s="10"/>
+    </row>
+    <row r="21" spans="3:23" ht="21" x14ac:dyDescent="0.35">
       <c r="C21" s="9"/>
-      <c r="F21" s="159"/>
-      <c r="G21" s="159"/>
-      <c r="H21" s="159"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="38"/>
+      <c r="F21" s="128"/>
+      <c r="G21" s="128"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="38"/>
+      <c r="J21"/>
       <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21" s="48"/>
-      <c r="X21" s="10"/>
-    </row>
-    <row r="22" spans="3:24" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L21" s="48"/>
+      <c r="W21" s="10"/>
+    </row>
+    <row r="22" spans="3:23" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C22" s="9"/>
       <c r="D22"/>
       <c r="F22" s="44"/>
       <c r="G22" s="44"/>
       <c r="H22" s="44"/>
       <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
+      <c r="J22"/>
       <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="31"/>
       <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
+      <c r="O22" s="43"/>
       <c r="P22" s="43"/>
       <c r="Q22" s="43"/>
       <c r="R22" s="43"/>
-      <c r="S22" s="43"/>
-      <c r="T22" s="82" t="s">
-        <v>35</v>
-      </c>
-      <c r="U22" s="98">
+      <c r="S22" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="T22" s="96">
         <v>7.1</v>
       </c>
-      <c r="X22" s="10"/>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="W22" s="10"/>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C23" s="9"/>
       <c r="D23"/>
       <c r="E23"/>
@@ -2332,19 +2329,18 @@
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23"/>
       <c r="N23"/>
       <c r="O23"/>
       <c r="P23"/>
       <c r="Q23"/>
       <c r="R23"/>
       <c r="S23"/>
-      <c r="T23"/>
-      <c r="U23" s="53"/>
-      <c r="X23" s="10"/>
-    </row>
-    <row r="24" spans="3:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T23" s="53"/>
+      <c r="W23" s="10"/>
+    </row>
+    <row r="24" spans="3:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="9"/>
       <c r="D24" s="19"/>
       <c r="E24" s="20"/>
@@ -2354,125 +2350,119 @@
       <c r="I24" s="20"/>
       <c r="J24" s="20"/>
       <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="20"/>
       <c r="N24" s="20"/>
       <c r="O24" s="20"/>
       <c r="P24" s="20"/>
       <c r="Q24" s="20"/>
       <c r="R24" s="20"/>
       <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="54"/>
-      <c r="V24" s="22"/>
-      <c r="X24" s="10"/>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="T24" s="54"/>
+      <c r="U24" s="22"/>
+      <c r="W24" s="10"/>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C25" s="9"/>
       <c r="D25" s="24"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="117"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="55"/>
-      <c r="X25" s="10"/>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="T25" s="55"/>
+      <c r="W25" s="10"/>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C26" s="9"/>
-      <c r="D26" s="134"/>
-      <c r="E26" s="134"/>
-      <c r="F26" s="134"/>
-      <c r="G26" s="134"/>
-      <c r="H26" s="134"/>
-      <c r="I26" s="134"/>
-      <c r="J26" s="134"/>
-      <c r="K26" s="134"/>
-      <c r="L26" s="134"/>
-      <c r="M26" s="134"/>
-      <c r="N26" s="134"/>
-      <c r="O26" s="134"/>
-      <c r="P26" s="134"/>
-      <c r="Q26" s="134"/>
-      <c r="R26" s="134"/>
-      <c r="S26" s="134"/>
-      <c r="T26" s="134"/>
-      <c r="U26" s="134"/>
-      <c r="X26" s="10"/>
-    </row>
-    <row r="27" spans="3:24" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="164"/>
+      <c r="E26" s="164"/>
+      <c r="F26" s="164"/>
+      <c r="G26" s="164"/>
+      <c r="H26" s="164"/>
+      <c r="I26" s="164"/>
+      <c r="J26" s="164"/>
+      <c r="K26" s="164"/>
+      <c r="L26" s="164"/>
+      <c r="M26" s="164"/>
+      <c r="N26" s="164"/>
+      <c r="O26" s="164"/>
+      <c r="P26" s="164"/>
+      <c r="Q26" s="164"/>
+      <c r="R26" s="164"/>
+      <c r="S26" s="164"/>
+      <c r="T26" s="164"/>
+      <c r="W26" s="10"/>
+    </row>
+    <row r="27" spans="3:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="9"/>
       <c r="D27" s="62" t="s">
         <v>1</v>
       </c>
       <c r="E27" s="62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F27" s="63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G27" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="H27" s="85" t="s">
-        <v>6</v>
-      </c>
-      <c r="I27" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="J27" s="85" t="s">
-        <v>37</v>
-      </c>
-      <c r="K27" s="64" t="s">
+      <c r="H27" s="83" t="s">
+        <v>70</v>
+      </c>
+      <c r="I27" s="83" t="s">
+        <v>36</v>
+      </c>
+      <c r="J27" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="L27" s="85" t="s">
-        <v>27</v>
-      </c>
-      <c r="M27" s="65" t="s">
+      <c r="L27" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="63" t="s">
         <v>29</v>
       </c>
       <c r="N27" s="63" t="s">
         <v>30</v>
       </c>
       <c r="O27" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="P27" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="S27" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="T27" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="P27" s="63" t="s">
+      <c r="U27" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="Q27" s="63" t="s">
-        <v>2</v>
-      </c>
-      <c r="R27" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="S27" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="T27" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="U27" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="V27" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="X27" s="10"/>
-    </row>
-    <row r="28" spans="3:24" ht="210" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W27" s="10"/>
+    </row>
+    <row r="28" spans="3:23" ht="210" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="9"/>
       <c r="D28" s="39">
         <v>1</v>
@@ -2480,41 +2470,40 @@
       <c r="E28" s="58"/>
       <c r="F28" s="59"/>
       <c r="G28" s="60"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="90"/>
-      <c r="K28" s="88"/>
-      <c r="L28" s="91">
-        <f>K28/$U$22</f>
+      <c r="H28" s="88"/>
+      <c r="I28" s="88"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="89">
+        <f>J28/$T$22</f>
         <v>0</v>
       </c>
-      <c r="M28" s="83">
-        <f>H28*K28</f>
+      <c r="L28" s="118">
+        <f>H28*J28</f>
         <v>0</v>
       </c>
-      <c r="N28" s="67">
-        <f>H28*L28</f>
+      <c r="M28" s="119">
+        <f>T22*K28</f>
         <v>0</v>
       </c>
+      <c r="N28" s="61"/>
       <c r="O28" s="61"/>
       <c r="P28" s="61"/>
-      <c r="Q28" s="61"/>
-      <c r="R28" s="68">
-        <f>P28*Q28</f>
+      <c r="Q28" s="68">
+        <f>O28*P28</f>
         <v>0</v>
       </c>
-      <c r="S28" s="69"/>
-      <c r="T28" s="69">
-        <f>S28*P28</f>
+      <c r="R28" s="69"/>
+      <c r="S28" s="69">
+        <f>R28*O28</f>
         <v>0</v>
       </c>
-      <c r="U28" s="70">
+      <c r="T28" s="70">
         <v>0</v>
       </c>
-      <c r="V28" s="71"/>
-      <c r="X28" s="10"/>
-    </row>
-    <row r="29" spans="3:24" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U28" s="71"/>
+      <c r="W28" s="10"/>
+    </row>
+    <row r="29" spans="3:23" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="9"/>
       <c r="D29" s="40">
         <v>2</v>
@@ -2522,664 +2511,648 @@
       <c r="E29" s="41"/>
       <c r="F29" s="45"/>
       <c r="G29" s="42"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="90"/>
-      <c r="K29" s="89"/>
-      <c r="L29" s="91">
-        <f>K29/$U$22</f>
+      <c r="H29" s="88"/>
+      <c r="I29" s="88"/>
+      <c r="J29" s="87"/>
+      <c r="K29" s="89">
+        <f>J29/$T$22</f>
         <v>0</v>
       </c>
-      <c r="M29" s="84">
-        <f>H29*K29</f>
+      <c r="L29" s="82">
+        <f>H29*J29</f>
         <v>0</v>
       </c>
-      <c r="N29" s="72">
-        <f>H29*L29</f>
+      <c r="M29" s="67">
+        <f>T23*K29</f>
         <v>0</v>
       </c>
+      <c r="N29" s="35"/>
       <c r="O29" s="35"/>
       <c r="P29" s="35"/>
-      <c r="Q29" s="35"/>
-      <c r="R29" s="73">
-        <f>P29*Q29</f>
+      <c r="Q29" s="72">
+        <f>O29*P29</f>
         <v>0</v>
       </c>
-      <c r="S29" s="74"/>
+      <c r="R29" s="73"/>
+      <c r="S29" s="74">
+        <f>R29*O29</f>
+        <v>0</v>
+      </c>
       <c r="T29" s="75">
-        <f>S29*P29</f>
         <v>0</v>
       </c>
-      <c r="U29" s="76">
+      <c r="U29" s="76"/>
+      <c r="W29" s="10"/>
+    </row>
+    <row r="30" spans="3:23" s="4" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="C30" s="15"/>
+      <c r="D30" s="129" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="130"/>
+      <c r="F30" s="130"/>
+      <c r="G30" s="130"/>
+      <c r="H30" s="130"/>
+      <c r="I30" s="130"/>
+      <c r="J30" s="129"/>
+      <c r="K30" s="130"/>
+      <c r="L30" s="165">
+        <f>SUM(L28:L29)</f>
         <v>0</v>
       </c>
-      <c r="V29" s="77"/>
-      <c r="X29" s="10"/>
-    </row>
-    <row r="30" spans="3:24" s="4" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C30" s="15"/>
-      <c r="D30" s="160" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="161"/>
-      <c r="F30" s="161"/>
-      <c r="G30" s="161"/>
-      <c r="H30" s="161"/>
-      <c r="I30" s="161"/>
-      <c r="J30" s="161"/>
-      <c r="K30" s="160"/>
-      <c r="L30" s="161"/>
-      <c r="M30" s="135">
+      <c r="M30" s="154">
         <f>SUM(M28:M29)</f>
         <v>0</v>
       </c>
-      <c r="N30" s="118">
-        <f>SUM(N28:N29)</f>
+      <c r="N30" s="36"/>
+      <c r="O30" s="155">
+        <f>SUM(O28:O29)</f>
         <v>0</v>
       </c>
-      <c r="O30" s="36"/>
-      <c r="P30" s="119">
-        <f>SUM(P28:P29)</f>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="157">
+        <f>SUM(Q28:Q29)</f>
         <v>0</v>
       </c>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="121">
-        <f>SUM(R28:R29)</f>
+      <c r="R30" s="56"/>
+      <c r="S30" s="157">
+        <f>SUM(S28:S29)</f>
         <v>0</v>
       </c>
-      <c r="S30" s="56"/>
-      <c r="T30" s="121">
+      <c r="T30" s="153">
         <f>SUM(T28:T29)</f>
         <v>0</v>
       </c>
-      <c r="U30" s="148">
-        <f>SUM(U28:U29)</f>
-        <v>0</v>
-      </c>
-      <c r="V30" s="37"/>
-      <c r="X30" s="16"/>
-    </row>
-    <row r="31" spans="3:24" s="4" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="U30" s="37"/>
+      <c r="W30" s="16"/>
+    </row>
+    <row r="31" spans="3:23" s="4" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="C31" s="15"/>
-      <c r="D31" s="160"/>
-      <c r="E31" s="160"/>
-      <c r="F31" s="160"/>
-      <c r="G31" s="160"/>
-      <c r="H31" s="160"/>
-      <c r="I31" s="160"/>
-      <c r="J31" s="160"/>
-      <c r="K31" s="160"/>
-      <c r="L31" s="160"/>
-      <c r="M31" s="135"/>
-      <c r="N31" s="118"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="120"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="121"/>
-      <c r="S31" s="56"/>
-      <c r="T31" s="121"/>
-      <c r="U31" s="148"/>
-      <c r="V31" s="37"/>
-      <c r="X31" s="16"/>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="D31" s="129"/>
+      <c r="E31" s="129"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="129"/>
+      <c r="H31" s="129"/>
+      <c r="I31" s="129"/>
+      <c r="J31" s="129"/>
+      <c r="K31" s="129"/>
+      <c r="L31" s="165"/>
+      <c r="M31" s="154"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="156"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="157"/>
+      <c r="R31" s="56"/>
+      <c r="S31" s="157"/>
+      <c r="T31" s="153"/>
+      <c r="U31" s="37"/>
+      <c r="W31" s="16"/>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C32" s="9"/>
-      <c r="N32" s="5"/>
-      <c r="S32" s="57"/>
-      <c r="X32" s="10"/>
-    </row>
-    <row r="33" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="M32" s="5"/>
+      <c r="R32" s="57"/>
+      <c r="W32" s="10"/>
+    </row>
+    <row r="33" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C33" s="9"/>
-      <c r="N33" s="5"/>
-      <c r="X33" s="10"/>
-    </row>
-    <row r="34" spans="3:33" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="M33" s="5"/>
+      <c r="W33" s="10"/>
+    </row>
+    <row r="34" spans="3:32" ht="23.25" x14ac:dyDescent="0.25">
       <c r="C34" s="9"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="80"/>
-      <c r="I34" s="80"/>
-      <c r="J34" s="80"/>
-      <c r="X34" s="10"/>
-    </row>
-    <row r="35" spans="3:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="79"/>
+      <c r="W34" s="10"/>
+    </row>
+    <row r="35" spans="3:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" s="9"/>
-      <c r="D35" s="95"/>
-      <c r="E35" s="95"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="96"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="81"/>
-      <c r="J35" s="81"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="94"/>
+      <c r="H35" s="80"/>
+      <c r="I35" s="80"/>
+      <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="X35" s="10"/>
-    </row>
-    <row r="36" spans="3:33" s="103" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="99"/>
-      <c r="D36" s="100"/>
-      <c r="E36" s="100"/>
-      <c r="F36" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="G36" s="97" t="s">
+      <c r="W35" s="10"/>
+    </row>
+    <row r="36" spans="3:32" s="101" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="97"/>
+      <c r="D36" s="98"/>
+      <c r="E36" s="98"/>
+      <c r="F36" s="95" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="H36" s="101"/>
-      <c r="I36" s="101"/>
-      <c r="J36" s="101"/>
-      <c r="K36" s="102"/>
-      <c r="M36" s="104"/>
-      <c r="R36" s="105"/>
-      <c r="S36" s="105"/>
-      <c r="T36" s="105"/>
-      <c r="U36" s="102"/>
-      <c r="X36" s="106"/>
-    </row>
-    <row r="37" spans="3:33" s="103" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="99"/>
-      <c r="D37" s="156" t="s">
-        <v>41</v>
-      </c>
-      <c r="E37" s="157"/>
-      <c r="F37" s="107">
+      <c r="H36" s="99"/>
+      <c r="I36" s="99"/>
+      <c r="J36" s="100"/>
+      <c r="L36" s="102"/>
+      <c r="Q36" s="103"/>
+      <c r="R36" s="103"/>
+      <c r="S36" s="103"/>
+      <c r="T36" s="100"/>
+      <c r="W36" s="104"/>
+    </row>
+    <row r="37" spans="3:32" s="101" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="97"/>
+      <c r="D37" s="123" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="124"/>
+      <c r="F37" s="105">
+        <f>+L30</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="106">
         <f>+M30</f>
         <v>0</v>
       </c>
-      <c r="G37" s="108">
-        <f>+N30</f>
+      <c r="H37" s="99"/>
+      <c r="I37" s="99"/>
+      <c r="J37" s="100"/>
+      <c r="L37" s="102"/>
+      <c r="T37" s="100"/>
+      <c r="U37" s="107"/>
+      <c r="W37" s="104"/>
+      <c r="AE37" s="108"/>
+      <c r="AF37" s="108"/>
+    </row>
+    <row r="38" spans="3:32" s="101" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="97"/>
+      <c r="D38" s="123" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="124"/>
+      <c r="F38" s="105">
+        <f>+T30</f>
         <v>0</v>
       </c>
-      <c r="H37" s="101"/>
-      <c r="I37" s="101"/>
-      <c r="J37" s="101"/>
-      <c r="K37" s="102"/>
-      <c r="M37" s="104"/>
-      <c r="U37" s="102"/>
-      <c r="V37" s="109"/>
-      <c r="X37" s="106"/>
-      <c r="AF37" s="110"/>
-      <c r="AG37" s="110"/>
-    </row>
-    <row r="38" spans="3:33" s="103" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="99"/>
-      <c r="D38" s="156" t="s">
+      <c r="G38" s="106">
+        <f>F38/T22</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="99"/>
+      <c r="I38" s="99"/>
+      <c r="J38" s="100"/>
+      <c r="L38" s="102"/>
+      <c r="P38" s="152"/>
+      <c r="Q38" s="152"/>
+      <c r="R38" s="152"/>
+      <c r="S38" s="152"/>
+      <c r="T38" s="152"/>
+      <c r="U38" s="152"/>
+      <c r="W38" s="104"/>
+      <c r="AE38" s="108"/>
+      <c r="AF38" s="108"/>
+    </row>
+    <row r="39" spans="3:32" s="101" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="97"/>
+      <c r="D39" s="123" t="s">
         <v>42</v>
       </c>
-      <c r="E38" s="157"/>
-      <c r="F38" s="107">
-        <f>+U30</f>
-        <v>0</v>
-      </c>
-      <c r="G38" s="108">
-        <f>F38/U22</f>
-        <v>0</v>
-      </c>
-      <c r="H38" s="101"/>
-      <c r="I38" s="101"/>
-      <c r="J38" s="101"/>
-      <c r="K38" s="102"/>
-      <c r="M38" s="104"/>
-      <c r="Q38" s="147"/>
-      <c r="R38" s="147"/>
-      <c r="S38" s="147"/>
-      <c r="T38" s="147"/>
-      <c r="U38" s="147"/>
-      <c r="V38" s="147"/>
-      <c r="X38" s="106"/>
-      <c r="AF38" s="110"/>
-      <c r="AG38" s="110"/>
-    </row>
-    <row r="39" spans="3:33" s="103" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="99"/>
-      <c r="D39" s="156" t="s">
-        <v>43</v>
-      </c>
-      <c r="E39" s="157"/>
-      <c r="F39" s="107">
+      <c r="E39" s="124"/>
+      <c r="F39" s="105">
         <f>F37*5%</f>
         <v>0</v>
       </c>
-      <c r="G39" s="108">
+      <c r="G39" s="106">
         <f>G37*5%</f>
         <v>0</v>
       </c>
-      <c r="H39" s="101"/>
-      <c r="I39" s="101"/>
-      <c r="J39" s="101"/>
-      <c r="K39" s="102"/>
-      <c r="M39" s="104"/>
-      <c r="U39" s="102"/>
-      <c r="X39" s="106"/>
-    </row>
-    <row r="40" spans="3:33" s="103" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="99"/>
-      <c r="D40" s="156" t="s">
+      <c r="H39" s="99"/>
+      <c r="I39" s="99"/>
+      <c r="J39" s="100"/>
+      <c r="L39" s="102"/>
+      <c r="T39" s="100"/>
+      <c r="W39" s="104"/>
+    </row>
+    <row r="40" spans="3:32" s="101" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="97"/>
+      <c r="D40" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="157"/>
-      <c r="F40" s="107">
+      <c r="E40" s="124"/>
+      <c r="F40" s="105">
         <f>SUM(F37:F39)</f>
         <v>0</v>
       </c>
-      <c r="G40" s="108">
+      <c r="G40" s="106">
         <f>SUM(G37:G39)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="101"/>
-      <c r="I40" s="101"/>
-      <c r="J40" s="101"/>
-      <c r="K40" s="102"/>
-      <c r="M40" s="104"/>
-      <c r="U40" s="102"/>
-      <c r="X40" s="106"/>
-    </row>
-    <row r="41" spans="3:33" s="103" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="99"/>
-      <c r="D41" s="151" t="s">
-        <v>44</v>
-      </c>
-      <c r="E41" s="152"/>
-      <c r="F41" s="107">
+      <c r="H40" s="99"/>
+      <c r="I40" s="99"/>
+      <c r="J40" s="100"/>
+      <c r="L40" s="102"/>
+      <c r="T40" s="100"/>
+      <c r="W40" s="104"/>
+    </row>
+    <row r="41" spans="3:32" s="101" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="97"/>
+      <c r="D41" s="138" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="139"/>
+      <c r="F41" s="105">
         <f>F37*30%</f>
         <v>0</v>
       </c>
-      <c r="G41" s="108">
+      <c r="G41" s="106">
         <f>G37*30%</f>
         <v>0</v>
       </c>
-      <c r="H41" s="111"/>
-      <c r="I41" s="111"/>
-      <c r="J41" s="111"/>
-      <c r="K41" s="102"/>
-      <c r="M41" s="104"/>
-      <c r="U41" s="102"/>
-      <c r="X41" s="106"/>
-    </row>
-    <row r="42" spans="3:33" s="103" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="99"/>
-      <c r="D42" s="151" t="s">
-        <v>45</v>
-      </c>
-      <c r="E42" s="152"/>
-      <c r="F42" s="107">
+      <c r="H41" s="109"/>
+      <c r="I41" s="109"/>
+      <c r="J41" s="100"/>
+      <c r="L41" s="102"/>
+      <c r="T41" s="100"/>
+      <c r="W41" s="104"/>
+    </row>
+    <row r="42" spans="3:32" s="101" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="97"/>
+      <c r="D42" s="138" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" s="139"/>
+      <c r="F42" s="105">
         <f>F37-F41</f>
         <v>0</v>
       </c>
-      <c r="G42" s="108">
+      <c r="G42" s="106">
         <f>G37-G41</f>
         <v>0</v>
       </c>
-      <c r="H42" s="111"/>
-      <c r="I42" s="111"/>
-      <c r="J42" s="111"/>
-      <c r="K42" s="102"/>
-      <c r="M42" s="104"/>
-      <c r="U42" s="102"/>
-      <c r="X42" s="106"/>
-    </row>
-    <row r="43" spans="3:33" s="103" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="99"/>
-      <c r="D43" s="151" t="s">
-        <v>46</v>
-      </c>
-      <c r="E43" s="152"/>
-      <c r="F43" s="107">
+      <c r="H42" s="109"/>
+      <c r="I42" s="109"/>
+      <c r="J42" s="100"/>
+      <c r="L42" s="102"/>
+      <c r="T42" s="100"/>
+      <c r="W42" s="104"/>
+    </row>
+    <row r="43" spans="3:32" s="101" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="97"/>
+      <c r="D43" s="138" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="139"/>
+      <c r="F43" s="105">
         <f>F38+F39</f>
         <v>0</v>
       </c>
-      <c r="G43" s="108">
+      <c r="G43" s="106">
         <f>G38+G39</f>
         <v>0</v>
       </c>
-      <c r="H43" s="100"/>
-      <c r="I43" s="100"/>
+      <c r="H43" s="98"/>
+      <c r="I43" s="98"/>
       <c r="J43" s="100"/>
-      <c r="K43" s="102"/>
-      <c r="M43" s="104"/>
-      <c r="U43" s="102"/>
-      <c r="X43" s="106"/>
-    </row>
-    <row r="44" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="L43" s="102"/>
+      <c r="T43" s="100"/>
+      <c r="W43" s="104"/>
+    </row>
+    <row r="44" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C44" s="9"/>
       <c r="D44" s="57"/>
       <c r="E44" s="57"/>
       <c r="F44" s="57"/>
       <c r="G44" s="57"/>
+      <c r="U44" s="1"/>
       <c r="V44" s="1"/>
-      <c r="W44" s="1"/>
-      <c r="X44" s="10"/>
-    </row>
-    <row r="45" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="W44" s="10"/>
+    </row>
+    <row r="45" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C45" s="9"/>
+      <c r="U45" s="1"/>
       <c r="V45" s="1"/>
-      <c r="W45" s="1"/>
-      <c r="X45" s="10"/>
-    </row>
-    <row r="46" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="W45" s="10"/>
+    </row>
+    <row r="46" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C46" s="9"/>
+      <c r="U46" s="1"/>
       <c r="V46" s="1"/>
-      <c r="W46" s="1"/>
-      <c r="X46" s="10"/>
-    </row>
-    <row r="47" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="W46" s="10"/>
+    </row>
+    <row r="47" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C47" s="9"/>
-      <c r="D47" s="153" t="s">
+      <c r="D47" s="140" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" s="140"/>
+      <c r="F47" s="140"/>
+      <c r="G47" s="140"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="10"/>
+    </row>
+    <row r="48" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C48" s="9"/>
+      <c r="D48" s="141"/>
+      <c r="E48" s="141"/>
+      <c r="F48" s="141"/>
+      <c r="G48" s="141"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="10"/>
+    </row>
+    <row r="49" spans="3:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="C49" s="9"/>
+      <c r="D49" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="E47" s="153"/>
-      <c r="F47" s="153"/>
-      <c r="G47" s="153"/>
-      <c r="V47" s="1"/>
-      <c r="W47" s="1"/>
-      <c r="X47" s="10"/>
-    </row>
-    <row r="48" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C48" s="9"/>
-      <c r="D48" s="154"/>
-      <c r="E48" s="154"/>
-      <c r="F48" s="154"/>
-      <c r="G48" s="154"/>
-      <c r="V48" s="1"/>
-      <c r="W48" s="1"/>
-      <c r="X48" s="10"/>
-    </row>
-    <row r="49" spans="3:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="C49" s="9"/>
-      <c r="D49" s="112" t="s">
+      <c r="E49" s="110"/>
+      <c r="F49" s="110"/>
+      <c r="G49" s="111"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="10"/>
+    </row>
+    <row r="50" spans="3:23" ht="21" x14ac:dyDescent="0.35">
+      <c r="C50" s="9"/>
+      <c r="D50" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="E49" s="112"/>
-      <c r="F49" s="112"/>
-      <c r="G49" s="113"/>
-      <c r="V49" s="1"/>
-      <c r="W49" s="1"/>
-      <c r="X49" s="10"/>
-    </row>
-    <row r="50" spans="3:24" ht="21" x14ac:dyDescent="0.35">
-      <c r="C50" s="9"/>
-      <c r="D50" s="149" t="s">
+      <c r="E50" s="121"/>
+      <c r="F50" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="E50" s="149"/>
-      <c r="F50" s="44" t="s">
+      <c r="G50" s="112"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="10"/>
+    </row>
+    <row r="51" spans="3:23" ht="21" x14ac:dyDescent="0.35">
+      <c r="C51" s="9"/>
+      <c r="D51" s="121" t="s">
         <v>50</v>
       </c>
-      <c r="G50" s="114"/>
-      <c r="V50" s="1"/>
-      <c r="W50" s="1"/>
-      <c r="X50" s="10"/>
-    </row>
-    <row r="51" spans="3:24" ht="21" x14ac:dyDescent="0.35">
-      <c r="C51" s="9"/>
-      <c r="D51" s="149" t="s">
+      <c r="E51" s="121"/>
+      <c r="F51" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="E51" s="149"/>
-      <c r="F51" s="44" t="s">
+      <c r="G51" s="112"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="10"/>
+    </row>
+    <row r="52" spans="3:23" ht="21" x14ac:dyDescent="0.35">
+      <c r="C52" s="9"/>
+      <c r="D52" s="120" t="s">
         <v>52</v>
       </c>
-      <c r="G51" s="114"/>
-      <c r="V51" s="1"/>
-      <c r="W51" s="1"/>
-      <c r="X51" s="10"/>
-    </row>
-    <row r="52" spans="3:24" ht="21" x14ac:dyDescent="0.35">
-      <c r="C52" s="9"/>
-      <c r="D52" s="150" t="s">
+      <c r="E52" s="120"/>
+      <c r="F52" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="E52" s="150"/>
-      <c r="F52" s="44" t="s">
+      <c r="G52" s="112"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="10"/>
+    </row>
+    <row r="53" spans="3:23" ht="21" x14ac:dyDescent="0.35">
+      <c r="C53" s="9"/>
+      <c r="D53" s="121" t="s">
         <v>54</v>
       </c>
-      <c r="G52" s="114"/>
-      <c r="V52" s="1"/>
-      <c r="W52" s="1"/>
-      <c r="X52" s="10"/>
-    </row>
-    <row r="53" spans="3:24" ht="21" x14ac:dyDescent="0.35">
-      <c r="C53" s="9"/>
-      <c r="D53" s="149" t="s">
+      <c r="E53" s="121"/>
+      <c r="F53" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="E53" s="149"/>
-      <c r="F53" s="44" t="s">
+      <c r="G53" s="112"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="10"/>
+    </row>
+    <row r="54" spans="3:23" ht="21" x14ac:dyDescent="0.35">
+      <c r="C54" s="9"/>
+      <c r="D54" s="121" t="s">
         <v>56</v>
       </c>
-      <c r="G53" s="114"/>
-      <c r="V53" s="1"/>
-      <c r="W53" s="1"/>
-      <c r="X53" s="10"/>
-    </row>
-    <row r="54" spans="3:24" ht="21" x14ac:dyDescent="0.35">
-      <c r="C54" s="9"/>
-      <c r="D54" s="149" t="s">
+      <c r="E54" s="121"/>
+      <c r="F54" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="G54" s="112"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="10"/>
+    </row>
+    <row r="55" spans="3:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="C55" s="9"/>
+      <c r="D55" s="110" t="s">
         <v>57</v>
       </c>
-      <c r="E54" s="149"/>
-      <c r="F54" s="44" t="s">
+      <c r="E55" s="110"/>
+      <c r="F55" s="110"/>
+      <c r="G55" s="111"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="10"/>
+    </row>
+    <row r="56" spans="3:23" ht="21" x14ac:dyDescent="0.35">
+      <c r="C56" s="9"/>
+      <c r="D56" s="121" t="s">
+        <v>48</v>
+      </c>
+      <c r="E56" s="121"/>
+      <c r="F56" s="113" t="s">
+        <v>58</v>
+      </c>
+      <c r="G56" s="112"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="10"/>
+    </row>
+    <row r="57" spans="3:23" ht="21" x14ac:dyDescent="0.35">
+      <c r="C57" s="9"/>
+      <c r="D57" s="121" t="s">
+        <v>50</v>
+      </c>
+      <c r="E57" s="121"/>
+      <c r="F57" s="113" t="s">
+        <v>59</v>
+      </c>
+      <c r="G57" s="112"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="10"/>
+    </row>
+    <row r="58" spans="3:23" ht="21" x14ac:dyDescent="0.35">
+      <c r="C58" s="9"/>
+      <c r="D58" s="120" t="s">
+        <v>52</v>
+      </c>
+      <c r="E58" s="120"/>
+      <c r="F58" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="G58" s="112"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="10"/>
+    </row>
+    <row r="59" spans="3:23" ht="21" x14ac:dyDescent="0.35">
+      <c r="C59" s="9"/>
+      <c r="D59" s="121" t="s">
+        <v>54</v>
+      </c>
+      <c r="E59" s="121"/>
+      <c r="F59" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="G59" s="112"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="10"/>
+    </row>
+    <row r="60" spans="3:23" ht="21" x14ac:dyDescent="0.35">
+      <c r="C60" s="9"/>
+      <c r="D60" s="121" t="s">
         <v>56</v>
       </c>
-      <c r="G54" s="114"/>
-      <c r="V54" s="1"/>
-      <c r="W54" s="1"/>
-      <c r="X54" s="10"/>
-    </row>
-    <row r="55" spans="3:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="C55" s="9"/>
-      <c r="D55" s="112" t="s">
-        <v>58</v>
-      </c>
-      <c r="E55" s="112"/>
-      <c r="F55" s="112"/>
-      <c r="G55" s="113"/>
-      <c r="V55" s="1"/>
-      <c r="W55" s="1"/>
-      <c r="X55" s="10"/>
-    </row>
-    <row r="56" spans="3:24" ht="21" x14ac:dyDescent="0.35">
-      <c r="C56" s="9"/>
-      <c r="D56" s="149" t="s">
-        <v>49</v>
-      </c>
-      <c r="E56" s="149"/>
-      <c r="F56" s="115" t="s">
-        <v>59</v>
-      </c>
-      <c r="G56" s="114"/>
-      <c r="V56" s="1"/>
-      <c r="W56" s="1"/>
-      <c r="X56" s="10"/>
-    </row>
-    <row r="57" spans="3:24" ht="21" x14ac:dyDescent="0.35">
-      <c r="C57" s="9"/>
-      <c r="D57" s="149" t="s">
-        <v>51</v>
-      </c>
-      <c r="E57" s="149"/>
-      <c r="F57" s="115" t="s">
+      <c r="E60" s="121"/>
+      <c r="F60" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="G60" s="112"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="10"/>
+    </row>
+    <row r="61" spans="3:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="C61" s="9"/>
+      <c r="D61" s="110" t="s">
+        <v>63</v>
+      </c>
+      <c r="E61" s="110"/>
+      <c r="F61" s="110"/>
+      <c r="G61" s="111"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="10"/>
+    </row>
+    <row r="62" spans="3:23" ht="21" x14ac:dyDescent="0.35">
+      <c r="C62" s="9"/>
+      <c r="D62" s="120" t="s">
+        <v>64</v>
+      </c>
+      <c r="E62" s="120"/>
+      <c r="F62" s="113" t="s">
+        <v>65</v>
+      </c>
+      <c r="G62" s="112"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
+      <c r="W62" s="10"/>
+    </row>
+    <row r="63" spans="3:23" ht="21" x14ac:dyDescent="0.35">
+      <c r="C63" s="9"/>
+      <c r="D63" s="120" t="s">
+        <v>66</v>
+      </c>
+      <c r="E63" s="120"/>
+      <c r="F63" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="G63" s="112"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="10"/>
+    </row>
+    <row r="64" spans="3:23" ht="21" x14ac:dyDescent="0.35">
+      <c r="C64" s="9"/>
+      <c r="D64" s="120" t="s">
+        <v>68</v>
+      </c>
+      <c r="E64" s="120"/>
+      <c r="F64" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="G64" s="112"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="10"/>
+    </row>
+    <row r="65" spans="3:23" ht="21" x14ac:dyDescent="0.35">
+      <c r="C65" s="9"/>
+      <c r="D65" s="120" t="s">
+        <v>52</v>
+      </c>
+      <c r="E65" s="120"/>
+      <c r="F65" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="G57" s="114"/>
-      <c r="V57" s="1"/>
-      <c r="W57" s="1"/>
-      <c r="X57" s="10"/>
-    </row>
-    <row r="58" spans="3:24" ht="21" x14ac:dyDescent="0.35">
-      <c r="C58" s="9"/>
-      <c r="D58" s="150" t="s">
-        <v>53</v>
-      </c>
-      <c r="E58" s="150"/>
-      <c r="F58" s="44" t="s">
+      <c r="G65" s="112"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="10"/>
+    </row>
+    <row r="66" spans="3:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C66" s="9"/>
+      <c r="D66" s="121" t="s">
+        <v>54</v>
+      </c>
+      <c r="E66" s="121"/>
+      <c r="F66" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="G58" s="114"/>
-      <c r="V58" s="1"/>
-      <c r="W58" s="1"/>
-      <c r="X58" s="10"/>
-    </row>
-    <row r="59" spans="3:24" ht="21" x14ac:dyDescent="0.35">
-      <c r="C59" s="9"/>
-      <c r="D59" s="149" t="s">
-        <v>55</v>
-      </c>
-      <c r="E59" s="149"/>
-      <c r="F59" s="44" t="s">
+      <c r="G66" s="112"/>
+      <c r="H66" s="90"/>
+      <c r="I66" s="90"/>
+      <c r="J66" s="90"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
+      <c r="W66" s="10"/>
+    </row>
+    <row r="67" spans="3:23" ht="21" x14ac:dyDescent="0.35">
+      <c r="C67" s="9"/>
+      <c r="D67" s="121" t="s">
+        <v>56</v>
+      </c>
+      <c r="E67" s="121"/>
+      <c r="F67" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="G59" s="114"/>
-      <c r="V59" s="1"/>
-      <c r="W59" s="1"/>
-      <c r="X59" s="10"/>
-    </row>
-    <row r="60" spans="3:24" ht="21" x14ac:dyDescent="0.35">
-      <c r="C60" s="9"/>
-      <c r="D60" s="149" t="s">
-        <v>57</v>
-      </c>
-      <c r="E60" s="149"/>
-      <c r="F60" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="G60" s="114"/>
-      <c r="V60" s="1"/>
-      <c r="W60" s="1"/>
-      <c r="X60" s="10"/>
-    </row>
-    <row r="61" spans="3:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="C61" s="9"/>
-      <c r="D61" s="112" t="s">
-        <v>64</v>
-      </c>
-      <c r="E61" s="112"/>
-      <c r="F61" s="112"/>
-      <c r="G61" s="113"/>
-      <c r="V61" s="1"/>
-      <c r="W61" s="1"/>
-      <c r="X61" s="10"/>
-    </row>
-    <row r="62" spans="3:24" ht="21" x14ac:dyDescent="0.35">
-      <c r="C62" s="9"/>
-      <c r="D62" s="150" t="s">
-        <v>65</v>
-      </c>
-      <c r="E62" s="150"/>
-      <c r="F62" s="115" t="s">
-        <v>66</v>
-      </c>
-      <c r="G62" s="114"/>
-      <c r="V62" s="1"/>
-      <c r="W62" s="1"/>
-      <c r="X62" s="10"/>
-    </row>
-    <row r="63" spans="3:24" ht="21" x14ac:dyDescent="0.35">
-      <c r="C63" s="9"/>
-      <c r="D63" s="150" t="s">
-        <v>67</v>
-      </c>
-      <c r="E63" s="150"/>
-      <c r="F63" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="G63" s="114"/>
-      <c r="V63" s="1"/>
-      <c r="W63" s="1"/>
-      <c r="X63" s="10"/>
-    </row>
-    <row r="64" spans="3:24" ht="21" x14ac:dyDescent="0.35">
-      <c r="C64" s="9"/>
-      <c r="D64" s="150" t="s">
-        <v>69</v>
-      </c>
-      <c r="E64" s="150"/>
-      <c r="F64" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="G64" s="114"/>
-      <c r="V64" s="1"/>
-      <c r="W64" s="1"/>
-      <c r="X64" s="10"/>
-    </row>
-    <row r="65" spans="3:24" ht="21" x14ac:dyDescent="0.35">
-      <c r="C65" s="9"/>
-      <c r="D65" s="150" t="s">
-        <v>53</v>
-      </c>
-      <c r="E65" s="150"/>
-      <c r="F65" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="G65" s="114"/>
-      <c r="V65" s="1"/>
-      <c r="W65" s="1"/>
-      <c r="X65" s="10"/>
-    </row>
-    <row r="66" spans="3:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C66" s="9"/>
-      <c r="D66" s="149" t="s">
-        <v>55</v>
-      </c>
-      <c r="E66" s="149"/>
-      <c r="F66" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="G66" s="114"/>
-      <c r="H66" s="92"/>
-      <c r="I66" s="92"/>
-      <c r="J66" s="92"/>
-      <c r="K66" s="92"/>
-      <c r="V66" s="1"/>
-      <c r="W66" s="1"/>
-      <c r="X66" s="10"/>
-    </row>
-    <row r="67" spans="3:24" ht="21" x14ac:dyDescent="0.35">
-      <c r="C67" s="9"/>
-      <c r="D67" s="149" t="s">
-        <v>57</v>
-      </c>
-      <c r="E67" s="149"/>
-      <c r="F67" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="G67" s="114"/>
+      <c r="G67" s="112"/>
       <c r="H67" s="57"/>
       <c r="I67" s="57"/>
-      <c r="J67" s="57"/>
-      <c r="K67" s="93"/>
+      <c r="J67" s="91"/>
+      <c r="U67" s="1"/>
       <c r="V67" s="1"/>
-      <c r="W67" s="1"/>
-      <c r="X67" s="10"/>
-    </row>
-    <row r="68" spans="3:24" ht="21" x14ac:dyDescent="0.25">
+      <c r="W67" s="10"/>
+    </row>
+    <row r="68" spans="3:23" ht="21" x14ac:dyDescent="0.25">
       <c r="C68" s="9"/>
-      <c r="D68" s="94"/>
-      <c r="E68" s="94"/>
-      <c r="F68" s="94"/>
-      <c r="G68" s="94"/>
-      <c r="H68" s="94"/>
-      <c r="I68" s="94"/>
-      <c r="J68" s="94"/>
-      <c r="K68" s="94"/>
+      <c r="D68" s="92"/>
+      <c r="E68" s="92"/>
+      <c r="F68" s="92"/>
+      <c r="G68" s="92"/>
+      <c r="H68" s="92"/>
+      <c r="I68" s="92"/>
+      <c r="J68" s="92"/>
+      <c r="U68" s="1"/>
       <c r="V68" s="1"/>
-      <c r="W68" s="1"/>
-      <c r="X68" s="25"/>
-    </row>
-    <row r="69" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="W68" s="25"/>
+    </row>
+    <row r="69" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C69" s="9"/>
+      <c r="U69" s="1"/>
       <c r="V69" s="1"/>
-      <c r="W69" s="1"/>
-      <c r="X69" s="10"/>
-    </row>
-    <row r="70" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="W69" s="10"/>
+    </row>
+    <row r="70" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C70" s="9"/>
-      <c r="X70" s="10"/>
-    </row>
-    <row r="71" spans="3:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W70" s="10"/>
+    </row>
+    <row r="71" spans="3:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C71" s="11"/>
       <c r="D71" s="17"/>
       <c r="E71" s="17"/>
@@ -3187,24 +3160,72 @@
       <c r="G71" s="17"/>
       <c r="H71" s="17"/>
       <c r="I71" s="17"/>
-      <c r="J71" s="17"/>
-      <c r="K71" s="18"/>
-      <c r="L71" s="17"/>
-      <c r="M71" s="51"/>
+      <c r="J71" s="18"/>
+      <c r="K71" s="17"/>
+      <c r="L71" s="51"/>
+      <c r="M71" s="17"/>
       <c r="N71" s="17"/>
       <c r="O71" s="17"/>
       <c r="P71" s="17"/>
       <c r="Q71" s="17"/>
       <c r="R71" s="17"/>
       <c r="S71" s="17"/>
-      <c r="T71" s="17"/>
-      <c r="U71" s="18"/>
+      <c r="T71" s="18"/>
+      <c r="U71" s="22"/>
       <c r="V71" s="22"/>
-      <c r="W71" s="22"/>
-      <c r="X71" s="12"/>
+      <c r="W71" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="R17:U17"/>
+    <mergeCell ref="R18:U18"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="D26:T26"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="S30:S31"/>
+    <mergeCell ref="R9:U10"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="N9:Q10"/>
+    <mergeCell ref="P38:U38"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D47:G48"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F6:I7"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F9:G10"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="D30:K31"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
     <mergeCell ref="D65:E65"/>
     <mergeCell ref="D66:E66"/>
     <mergeCell ref="D67:E67"/>
@@ -3213,55 +3234,6 @@
     <mergeCell ref="D62:E62"/>
     <mergeCell ref="D63:E63"/>
     <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F6:J7"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F9:G10"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="D30:L31"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D47:G48"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="S9:V10"/>
-    <mergeCell ref="S8:V8"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="O9:R10"/>
-    <mergeCell ref="Q38:V38"/>
-    <mergeCell ref="U30:U31"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="R30:R31"/>
-    <mergeCell ref="S17:V17"/>
-    <mergeCell ref="S18:V18"/>
-    <mergeCell ref="S19:V19"/>
-    <mergeCell ref="S20:V20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="D26:U26"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="T30:T31"/>
   </mergeCells>
   <pageMargins left="0.39" right="0.49" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="26" orientation="portrait" r:id="rId1"/>

--- a/assets/downloads/agente_compra/TRADING-ORDEN-PERU.xlsx
+++ b/assets/downloads/agente_compra/TRADING-ORDEN-PERU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\probusinees-intranet\assets\downloads\agente_compra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4AAE9C-6743-4562-8205-6582FB3068F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9B3049-286E-4260-871E-0612A3C988DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COD" sheetId="5" r:id="rId1"/>
@@ -22,15 +22,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -288,7 +279,7 @@
     <t>Shuangchuang Building 1 Building 10 10th Floor Room 1013 1133 Zhouzhou</t>
   </si>
   <si>
-    <t>MOQ</t>
+    <t>CANTIDAD TOTAL</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +992,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1298,164 +1289,149 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="13" fillId="2" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="13" fillId="2" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1868,34 +1844,34 @@
   </sheetPr>
   <dimension ref="C1:AF71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="10.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.09765625" customWidth="1"/>
+    <col min="4" max="4" width="10.3984375" style="1" customWidth="1"/>
     <col min="5" max="5" width="47" style="1" customWidth="1"/>
-    <col min="6" max="6" width="37.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="36.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="21.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="21.125" style="47" customWidth="1"/>
+    <col min="6" max="6" width="37.8984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36.59765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.8984375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.8984375" style="6" customWidth="1"/>
+    <col min="11" max="11" width="21.09765625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.09765625" style="47" customWidth="1"/>
     <col min="13" max="13" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20.5" style="1" customWidth="1"/>
     <col min="15" max="16" width="16" style="1" customWidth="1"/>
-    <col min="17" max="19" width="20.375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="21.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="20.3984375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="21.8984375" style="6" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="26" customWidth="1"/>
     <col min="22" max="22" width="13.5" customWidth="1"/>
     <col min="32" max="32" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C1" s="7"/>
       <c r="D1" s="13"/>
       <c r="E1" s="21"/>
@@ -1918,15 +1894,15 @@
       <c r="V1" s="21"/>
       <c r="W1" s="8"/>
     </row>
-    <row r="2" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C2" s="9"/>
       <c r="W2" s="10"/>
     </row>
-    <row r="3" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C3" s="9"/>
       <c r="W3" s="10"/>
     </row>
-    <row r="4" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C4" s="9"/>
       <c r="F4"/>
       <c r="G4"/>
@@ -1937,7 +1913,7 @@
       <c r="L4" s="48"/>
       <c r="W4" s="10"/>
     </row>
-    <row r="5" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C5" s="9"/>
       <c r="H5"/>
       <c r="I5"/>
@@ -1946,16 +1922,16 @@
       <c r="L5" s="48"/>
       <c r="W5" s="10"/>
     </row>
-    <row r="6" spans="3:23" ht="92.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:23" ht="91.8" x14ac:dyDescent="0.3">
       <c r="C6" s="9"/>
       <c r="D6" s="26"/>
       <c r="E6" s="27"/>
-      <c r="F6" s="122" t="s">
+      <c r="F6" s="153" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="122"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="153"/>
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6" s="48"/>
@@ -1966,14 +1942,14 @@
       </c>
       <c r="W6" s="10"/>
     </row>
-    <row r="7" spans="3:23" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="3:23" ht="36.6" x14ac:dyDescent="0.7">
       <c r="C7" s="9"/>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7" s="48"/>
@@ -1981,7 +1957,7 @@
       <c r="N7"/>
       <c r="W7" s="10"/>
     </row>
-    <row r="8" spans="3:23" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="3:23" ht="36.6" x14ac:dyDescent="0.7">
       <c r="C8" s="9"/>
       <c r="D8" s="34" t="s">
         <v>8</v>
@@ -1997,75 +1973,75 @@
       <c r="K8"/>
       <c r="L8" s="48"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="146" t="s">
+      <c r="N8" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="146"/>
-      <c r="P8" s="146"/>
-      <c r="Q8" s="146"/>
-      <c r="R8" s="146" t="s">
+      <c r="O8" s="138"/>
+      <c r="P8" s="138"/>
+      <c r="Q8" s="138"/>
+      <c r="R8" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="S8" s="146"/>
-      <c r="T8" s="146"/>
-      <c r="U8" s="146"/>
+      <c r="S8" s="138"/>
+      <c r="T8" s="138"/>
+      <c r="U8" s="138"/>
       <c r="W8" s="10"/>
     </row>
-    <row r="9" spans="3:23" ht="30.95" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="3:23" ht="30.9" customHeight="1" x14ac:dyDescent="0.6">
       <c r="C9" s="9"/>
       <c r="D9" s="32" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="32"/>
-      <c r="F9" s="125" t="s">
+      <c r="F9" s="156" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="125"/>
+      <c r="G9" s="156"/>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
       <c r="K9"/>
       <c r="L9" s="48"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="147" t="s">
+      <c r="N9" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="O9" s="148"/>
-      <c r="P9" s="148"/>
-      <c r="Q9" s="149"/>
-      <c r="R9" s="142">
+      <c r="O9" s="140"/>
+      <c r="P9" s="140"/>
+      <c r="Q9" s="141"/>
+      <c r="R9" s="134">
         <v>45470</v>
       </c>
-      <c r="S9" s="142"/>
-      <c r="T9" s="142"/>
-      <c r="U9" s="143"/>
+      <c r="S9" s="134"/>
+      <c r="T9" s="134"/>
+      <c r="U9" s="135"/>
       <c r="W9" s="10"/>
     </row>
-    <row r="10" spans="3:23" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="3:23" ht="36.9" customHeight="1" x14ac:dyDescent="0.6">
       <c r="C10" s="9"/>
       <c r="D10" s="32" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="32"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="125"/>
+      <c r="F10" s="156"/>
+      <c r="G10" s="156"/>
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
       <c r="J10" s="33"/>
       <c r="K10"/>
       <c r="L10" s="48"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="150"/>
-      <c r="O10" s="137"/>
-      <c r="P10" s="137"/>
-      <c r="Q10" s="151"/>
-      <c r="R10" s="144"/>
-      <c r="S10" s="144"/>
-      <c r="T10" s="144"/>
-      <c r="U10" s="145"/>
+      <c r="N10" s="142"/>
+      <c r="O10" s="143"/>
+      <c r="P10" s="143"/>
+      <c r="Q10" s="144"/>
+      <c r="R10" s="136"/>
+      <c r="S10" s="136"/>
+      <c r="T10" s="136"/>
+      <c r="U10" s="137"/>
       <c r="W10" s="10"/>
     </row>
-    <row r="11" spans="3:23" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="3:23" ht="36.6" x14ac:dyDescent="0.7">
       <c r="C11" s="9"/>
       <c r="E11" s="30"/>
       <c r="F11" s="30"/>
@@ -2084,7 +2060,7 @@
       <c r="T11" s="52"/>
       <c r="W11" s="10"/>
     </row>
-    <row r="12" spans="3:23" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="3:23" ht="36.6" x14ac:dyDescent="0.7">
       <c r="C12" s="9"/>
       <c r="E12" s="30"/>
       <c r="F12" s="30"/>
@@ -2104,12 +2080,12 @@
       <c r="T12" s="53"/>
       <c r="W12" s="10"/>
     </row>
-    <row r="13" spans="3:23" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="3:23" ht="36.9" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C13" s="9"/>
-      <c r="D13" s="133" t="s">
+      <c r="D13" s="160" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="134"/>
+      <c r="E13" s="161"/>
       <c r="F13" s="30"/>
       <c r="G13" s="30"/>
       <c r="H13"/>
@@ -2127,7 +2103,7 @@
       <c r="T13" s="53"/>
       <c r="W13" s="10"/>
     </row>
-    <row r="14" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C14" s="9"/>
       <c r="E14"/>
       <c r="F14"/>
@@ -2147,7 +2123,7 @@
       <c r="T14" s="52"/>
       <c r="W14" s="10"/>
     </row>
-    <row r="15" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C15" s="9"/>
       <c r="D15"/>
       <c r="E15"/>
@@ -2168,7 +2144,7 @@
       <c r="T15" s="52"/>
       <c r="W15" s="10"/>
     </row>
-    <row r="16" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C16" s="9"/>
       <c r="D16"/>
       <c r="E16"/>
@@ -2189,113 +2165,113 @@
       <c r="T16" s="52"/>
       <c r="W16" s="10"/>
     </row>
-    <row r="17" spans="3:23" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="17" spans="3:23" ht="31.2" x14ac:dyDescent="0.6">
       <c r="C17" s="9"/>
-      <c r="D17" s="162" t="s">
+      <c r="D17" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="163"/>
-      <c r="F17" s="136"/>
-      <c r="G17" s="158"/>
-      <c r="H17" s="116"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="85"/>
       <c r="I17" s="85"/>
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17" s="48"/>
-      <c r="O17" s="162" t="s">
+      <c r="O17" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="P17" s="163"/>
-      <c r="Q17" s="163"/>
-      <c r="R17" s="136"/>
-      <c r="S17" s="136"/>
-      <c r="T17" s="136"/>
-      <c r="U17" s="158"/>
+      <c r="P17" s="131"/>
+      <c r="Q17" s="131"/>
+      <c r="R17" s="120"/>
+      <c r="S17" s="120"/>
+      <c r="T17" s="120"/>
+      <c r="U17" s="121"/>
       <c r="W17" s="10"/>
     </row>
-    <row r="18" spans="3:23" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="18" spans="3:23" ht="31.2" x14ac:dyDescent="0.6">
       <c r="C18" s="9"/>
-      <c r="D18" s="126" t="s">
+      <c r="D18" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="127"/>
-      <c r="F18" s="166"/>
-      <c r="G18" s="159"/>
-      <c r="H18" s="116"/>
+      <c r="E18" s="129"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="85"/>
       <c r="I18" s="85"/>
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18" s="48"/>
-      <c r="O18" s="126" t="s">
+      <c r="O18" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="P18" s="127"/>
-      <c r="Q18" s="127"/>
-      <c r="R18" s="135"/>
-      <c r="S18" s="135"/>
-      <c r="T18" s="135"/>
-      <c r="U18" s="159"/>
+      <c r="P18" s="129"/>
+      <c r="Q18" s="129"/>
+      <c r="R18" s="122"/>
+      <c r="S18" s="122"/>
+      <c r="T18" s="122"/>
+      <c r="U18" s="123"/>
       <c r="W18" s="10"/>
     </row>
-    <row r="19" spans="3:23" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="19" spans="3:23" ht="31.2" x14ac:dyDescent="0.6">
       <c r="C19" s="9"/>
-      <c r="D19" s="126" t="s">
+      <c r="D19" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="127"/>
-      <c r="F19" s="166"/>
-      <c r="G19" s="159"/>
-      <c r="H19" s="116"/>
+      <c r="E19" s="129"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="123"/>
+      <c r="H19" s="85"/>
       <c r="I19" s="85"/>
       <c r="J19"/>
       <c r="K19"/>
       <c r="L19" s="48"/>
-      <c r="O19" s="126" t="s">
+      <c r="O19" s="128" t="s">
         <v>38</v>
       </c>
-      <c r="P19" s="127"/>
-      <c r="Q19" s="127"/>
-      <c r="R19" s="135"/>
-      <c r="S19" s="135"/>
-      <c r="T19" s="135"/>
-      <c r="U19" s="159"/>
+      <c r="P19" s="129"/>
+      <c r="Q19" s="129"/>
+      <c r="R19" s="122"/>
+      <c r="S19" s="122"/>
+      <c r="T19" s="122"/>
+      <c r="U19" s="123"/>
       <c r="W19" s="10"/>
     </row>
-    <row r="20" spans="3:23" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="20" spans="3:23" ht="31.2" x14ac:dyDescent="0.6">
       <c r="C20" s="9"/>
-      <c r="D20" s="131" t="s">
+      <c r="D20" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="132"/>
-      <c r="F20" s="137"/>
-      <c r="G20" s="167"/>
-      <c r="H20" s="117"/>
+      <c r="E20" s="127"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="162"/>
+      <c r="H20" s="84"/>
       <c r="I20" s="84"/>
       <c r="K20"/>
       <c r="L20" s="48"/>
-      <c r="O20" s="131" t="s">
+      <c r="O20" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="P20" s="132"/>
-      <c r="Q20" s="132"/>
-      <c r="R20" s="160"/>
-      <c r="S20" s="160"/>
-      <c r="T20" s="160"/>
-      <c r="U20" s="161"/>
+      <c r="P20" s="127"/>
+      <c r="Q20" s="127"/>
+      <c r="R20" s="124"/>
+      <c r="S20" s="124"/>
+      <c r="T20" s="124"/>
+      <c r="U20" s="125"/>
       <c r="W20" s="10"/>
     </row>
-    <row r="21" spans="3:23" ht="21" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:23" ht="21" x14ac:dyDescent="0.4">
       <c r="C21" s="9"/>
-      <c r="F21" s="128"/>
-      <c r="G21" s="128"/>
-      <c r="H21" s="114"/>
+      <c r="F21" s="157"/>
+      <c r="G21" s="157"/>
+      <c r="H21" s="38"/>
       <c r="I21" s="38"/>
       <c r="J21"/>
       <c r="K21"/>
       <c r="L21" s="48"/>
       <c r="W21" s="10"/>
     </row>
-    <row r="22" spans="3:23" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:23" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C22" s="9"/>
       <c r="D22"/>
       <c r="F22" s="44"/>
@@ -2319,7 +2295,7 @@
       </c>
       <c r="W22" s="10"/>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C23" s="9"/>
       <c r="D23"/>
       <c r="E23"/>
@@ -2340,7 +2316,7 @@
       <c r="T23" s="53"/>
       <c r="W23" s="10"/>
     </row>
-    <row r="24" spans="3:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C24" s="9"/>
       <c r="D24" s="19"/>
       <c r="E24" s="20"/>
@@ -2362,13 +2338,13 @@
       <c r="U24" s="22"/>
       <c r="W24" s="10"/>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C25" s="9"/>
       <c r="D25" s="24"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="115"/>
+      <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -2383,28 +2359,28 @@
       <c r="T25" s="55"/>
       <c r="W25" s="10"/>
     </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C26" s="9"/>
-      <c r="D26" s="164"/>
-      <c r="E26" s="164"/>
-      <c r="F26" s="164"/>
-      <c r="G26" s="164"/>
-      <c r="H26" s="164"/>
-      <c r="I26" s="164"/>
-      <c r="J26" s="164"/>
-      <c r="K26" s="164"/>
-      <c r="L26" s="164"/>
-      <c r="M26" s="164"/>
-      <c r="N26" s="164"/>
-      <c r="O26" s="164"/>
-      <c r="P26" s="164"/>
-      <c r="Q26" s="164"/>
-      <c r="R26" s="164"/>
-      <c r="S26" s="164"/>
-      <c r="T26" s="164"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="132"/>
+      <c r="G26" s="132"/>
+      <c r="H26" s="132"/>
+      <c r="I26" s="132"/>
+      <c r="J26" s="132"/>
+      <c r="K26" s="132"/>
+      <c r="L26" s="132"/>
+      <c r="M26" s="132"/>
+      <c r="N26" s="132"/>
+      <c r="O26" s="132"/>
+      <c r="P26" s="132"/>
+      <c r="Q26" s="132"/>
+      <c r="R26" s="132"/>
+      <c r="S26" s="132"/>
+      <c r="T26" s="132"/>
       <c r="W26" s="10"/>
     </row>
-    <row r="27" spans="3:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="9"/>
       <c r="D27" s="62" t="s">
         <v>1</v>
@@ -2462,7 +2438,7 @@
       </c>
       <c r="W27" s="10"/>
     </row>
-    <row r="28" spans="3:23" ht="210" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:23" ht="210" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="9"/>
       <c r="D28" s="39">
         <v>1</v>
@@ -2477,11 +2453,11 @@
         <f>J28/$T$22</f>
         <v>0</v>
       </c>
-      <c r="L28" s="118">
+      <c r="L28" s="114">
         <f>H28*J28</f>
         <v>0</v>
       </c>
-      <c r="M28" s="119">
+      <c r="M28" s="115">
         <f>T22*K28</f>
         <v>0</v>
       </c>
@@ -2503,7 +2479,7 @@
       <c r="U28" s="71"/>
       <c r="W28" s="10"/>
     </row>
-    <row r="29" spans="3:23" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:23" ht="210.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="9"/>
       <c r="D29" s="40">
         <v>2</v>
@@ -2544,82 +2520,82 @@
       <c r="U29" s="76"/>
       <c r="W29" s="10"/>
     </row>
-    <row r="30" spans="3:23" s="4" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:23" s="4" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="C30" s="15"/>
-      <c r="D30" s="129" t="s">
+      <c r="D30" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="130"/>
-      <c r="F30" s="130"/>
-      <c r="G30" s="130"/>
-      <c r="H30" s="130"/>
-      <c r="I30" s="130"/>
-      <c r="J30" s="129"/>
-      <c r="K30" s="130"/>
-      <c r="L30" s="165">
+      <c r="E30" s="159"/>
+      <c r="F30" s="159"/>
+      <c r="G30" s="159"/>
+      <c r="H30" s="159"/>
+      <c r="I30" s="159"/>
+      <c r="J30" s="158"/>
+      <c r="K30" s="159"/>
+      <c r="L30" s="133">
         <f>SUM(L28:L29)</f>
         <v>0</v>
       </c>
-      <c r="M30" s="154">
+      <c r="M30" s="116">
         <f>SUM(M28:M29)</f>
         <v>0</v>
       </c>
       <c r="N30" s="36"/>
-      <c r="O30" s="155">
+      <c r="O30" s="117">
         <f>SUM(O28:O29)</f>
         <v>0</v>
       </c>
       <c r="P30" s="36"/>
-      <c r="Q30" s="157">
+      <c r="Q30" s="119">
         <f>SUM(Q28:Q29)</f>
         <v>0</v>
       </c>
       <c r="R30" s="56"/>
-      <c r="S30" s="157">
+      <c r="S30" s="119">
         <f>SUM(S28:S29)</f>
         <v>0</v>
       </c>
-      <c r="T30" s="153">
+      <c r="T30" s="146">
         <f>SUM(T28:T29)</f>
         <v>0</v>
       </c>
       <c r="U30" s="37"/>
       <c r="W30" s="16"/>
     </row>
-    <row r="31" spans="3:23" s="4" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="31" spans="3:23" s="4" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="C31" s="15"/>
-      <c r="D31" s="129"/>
-      <c r="E31" s="129"/>
-      <c r="F31" s="129"/>
-      <c r="G31" s="129"/>
-      <c r="H31" s="129"/>
-      <c r="I31" s="129"/>
-      <c r="J31" s="129"/>
-      <c r="K31" s="129"/>
-      <c r="L31" s="165"/>
-      <c r="M31" s="154"/>
+      <c r="D31" s="158"/>
+      <c r="E31" s="158"/>
+      <c r="F31" s="158"/>
+      <c r="G31" s="158"/>
+      <c r="H31" s="158"/>
+      <c r="I31" s="158"/>
+      <c r="J31" s="158"/>
+      <c r="K31" s="158"/>
+      <c r="L31" s="133"/>
+      <c r="M31" s="116"/>
       <c r="N31" s="36"/>
-      <c r="O31" s="156"/>
+      <c r="O31" s="118"/>
       <c r="P31" s="36"/>
-      <c r="Q31" s="157"/>
+      <c r="Q31" s="119"/>
       <c r="R31" s="56"/>
-      <c r="S31" s="157"/>
-      <c r="T31" s="153"/>
+      <c r="S31" s="119"/>
+      <c r="T31" s="146"/>
       <c r="U31" s="37"/>
       <c r="W31" s="16"/>
     </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C32" s="9"/>
       <c r="M32" s="5"/>
       <c r="R32" s="57"/>
       <c r="W32" s="10"/>
     </row>
-    <row r="33" spans="3:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C33" s="9"/>
       <c r="M33" s="5"/>
       <c r="W33" s="10"/>
     </row>
-    <row r="34" spans="3:32" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:32" ht="23.4" x14ac:dyDescent="0.3">
       <c r="C34" s="9"/>
       <c r="D34" s="77"/>
       <c r="E34" s="77"/>
@@ -2629,7 +2605,7 @@
       <c r="I34" s="79"/>
       <c r="W34" s="10"/>
     </row>
-    <row r="35" spans="3:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="9"/>
       <c r="D35" s="93"/>
       <c r="E35" s="93"/>
@@ -2642,7 +2618,7 @@
       <c r="S35" s="3"/>
       <c r="W35" s="10"/>
     </row>
-    <row r="36" spans="3:32" s="101" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:32" s="101" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="97"/>
       <c r="D36" s="98"/>
       <c r="E36" s="98"/>
@@ -2662,12 +2638,12 @@
       <c r="T36" s="100"/>
       <c r="W36" s="104"/>
     </row>
-    <row r="37" spans="3:32" s="101" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:32" s="101" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="97"/>
-      <c r="D37" s="123" t="s">
+      <c r="D37" s="154" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="124"/>
+      <c r="E37" s="155"/>
       <c r="F37" s="105">
         <f>+L30</f>
         <v>0</v>
@@ -2686,12 +2662,12 @@
       <c r="AE37" s="108"/>
       <c r="AF37" s="108"/>
     </row>
-    <row r="38" spans="3:32" s="101" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:32" s="101" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="97"/>
-      <c r="D38" s="123" t="s">
+      <c r="D38" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="124"/>
+      <c r="E38" s="155"/>
       <c r="F38" s="105">
         <f>+T30</f>
         <v>0</v>
@@ -2704,22 +2680,22 @@
       <c r="I38" s="99"/>
       <c r="J38" s="100"/>
       <c r="L38" s="102"/>
-      <c r="P38" s="152"/>
-      <c r="Q38" s="152"/>
-      <c r="R38" s="152"/>
-      <c r="S38" s="152"/>
-      <c r="T38" s="152"/>
-      <c r="U38" s="152"/>
+      <c r="P38" s="145"/>
+      <c r="Q38" s="145"/>
+      <c r="R38" s="145"/>
+      <c r="S38" s="145"/>
+      <c r="T38" s="145"/>
+      <c r="U38" s="145"/>
       <c r="W38" s="104"/>
       <c r="AE38" s="108"/>
       <c r="AF38" s="108"/>
     </row>
-    <row r="39" spans="3:32" s="101" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:32" s="101" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="97"/>
-      <c r="D39" s="123" t="s">
+      <c r="D39" s="154" t="s">
         <v>42</v>
       </c>
-      <c r="E39" s="124"/>
+      <c r="E39" s="155"/>
       <c r="F39" s="105">
         <f>F37*5%</f>
         <v>0</v>
@@ -2735,12 +2711,12 @@
       <c r="T39" s="100"/>
       <c r="W39" s="104"/>
     </row>
-    <row r="40" spans="3:32" s="101" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:32" s="101" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="97"/>
-      <c r="D40" s="123" t="s">
+      <c r="D40" s="154" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="124"/>
+      <c r="E40" s="155"/>
       <c r="F40" s="105">
         <f>SUM(F37:F39)</f>
         <v>0</v>
@@ -2756,12 +2732,12 @@
       <c r="T40" s="100"/>
       <c r="W40" s="104"/>
     </row>
-    <row r="41" spans="3:32" s="101" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:32" s="101" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="97"/>
-      <c r="D41" s="138" t="s">
+      <c r="D41" s="149" t="s">
         <v>43</v>
       </c>
-      <c r="E41" s="139"/>
+      <c r="E41" s="150"/>
       <c r="F41" s="105">
         <f>F37*30%</f>
         <v>0</v>
@@ -2777,12 +2753,12 @@
       <c r="T41" s="100"/>
       <c r="W41" s="104"/>
     </row>
-    <row r="42" spans="3:32" s="101" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:32" s="101" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="97"/>
-      <c r="D42" s="138" t="s">
+      <c r="D42" s="149" t="s">
         <v>44</v>
       </c>
-      <c r="E42" s="139"/>
+      <c r="E42" s="150"/>
       <c r="F42" s="105">
         <f>F37-F41</f>
         <v>0</v>
@@ -2798,12 +2774,12 @@
       <c r="T42" s="100"/>
       <c r="W42" s="104"/>
     </row>
-    <row r="43" spans="3:32" s="101" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:32" s="101" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="97"/>
-      <c r="D43" s="138" t="s">
+      <c r="D43" s="149" t="s">
         <v>45</v>
       </c>
-      <c r="E43" s="139"/>
+      <c r="E43" s="150"/>
       <c r="F43" s="105">
         <f>F38+F39</f>
         <v>0</v>
@@ -2819,7 +2795,7 @@
       <c r="T43" s="100"/>
       <c r="W43" s="104"/>
     </row>
-    <row r="44" spans="3:32" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C44" s="9"/>
       <c r="D44" s="57"/>
       <c r="E44" s="57"/>
@@ -2829,41 +2805,41 @@
       <c r="V44" s="1"/>
       <c r="W44" s="10"/>
     </row>
-    <row r="45" spans="3:32" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C45" s="9"/>
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
       <c r="W45" s="10"/>
     </row>
-    <row r="46" spans="3:32" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C46" s="9"/>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
       <c r="W46" s="10"/>
     </row>
-    <row r="47" spans="3:32" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C47" s="9"/>
-      <c r="D47" s="140" t="s">
+      <c r="D47" s="151" t="s">
         <v>46</v>
       </c>
-      <c r="E47" s="140"/>
-      <c r="F47" s="140"/>
-      <c r="G47" s="140"/>
+      <c r="E47" s="151"/>
+      <c r="F47" s="151"/>
+      <c r="G47" s="151"/>
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
       <c r="W47" s="10"/>
     </row>
-    <row r="48" spans="3:32" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C48" s="9"/>
-      <c r="D48" s="141"/>
-      <c r="E48" s="141"/>
-      <c r="F48" s="141"/>
-      <c r="G48" s="141"/>
+      <c r="D48" s="152"/>
+      <c r="E48" s="152"/>
+      <c r="F48" s="152"/>
+      <c r="G48" s="152"/>
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
       <c r="W48" s="10"/>
     </row>
-    <row r="49" spans="3:23" ht="21" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:23" ht="21" x14ac:dyDescent="0.3">
       <c r="C49" s="9"/>
       <c r="D49" s="110" t="s">
         <v>47</v>
@@ -2875,12 +2851,12 @@
       <c r="V49" s="1"/>
       <c r="W49" s="10"/>
     </row>
-    <row r="50" spans="3:23" ht="21" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:23" ht="21" x14ac:dyDescent="0.4">
       <c r="C50" s="9"/>
-      <c r="D50" s="121" t="s">
+      <c r="D50" s="147" t="s">
         <v>48</v>
       </c>
-      <c r="E50" s="121"/>
+      <c r="E50" s="147"/>
       <c r="F50" s="44" t="s">
         <v>49</v>
       </c>
@@ -2889,12 +2865,12 @@
       <c r="V50" s="1"/>
       <c r="W50" s="10"/>
     </row>
-    <row r="51" spans="3:23" ht="21" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:23" ht="21" x14ac:dyDescent="0.4">
       <c r="C51" s="9"/>
-      <c r="D51" s="121" t="s">
+      <c r="D51" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="E51" s="121"/>
+      <c r="E51" s="147"/>
       <c r="F51" s="44" t="s">
         <v>51</v>
       </c>
@@ -2903,12 +2879,12 @@
       <c r="V51" s="1"/>
       <c r="W51" s="10"/>
     </row>
-    <row r="52" spans="3:23" ht="21" x14ac:dyDescent="0.35">
+    <row r="52" spans="3:23" ht="21" x14ac:dyDescent="0.4">
       <c r="C52" s="9"/>
-      <c r="D52" s="120" t="s">
+      <c r="D52" s="148" t="s">
         <v>52</v>
       </c>
-      <c r="E52" s="120"/>
+      <c r="E52" s="148"/>
       <c r="F52" s="44" t="s">
         <v>53</v>
       </c>
@@ -2917,12 +2893,12 @@
       <c r="V52" s="1"/>
       <c r="W52" s="10"/>
     </row>
-    <row r="53" spans="3:23" ht="21" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:23" ht="21" x14ac:dyDescent="0.4">
       <c r="C53" s="9"/>
-      <c r="D53" s="121" t="s">
+      <c r="D53" s="147" t="s">
         <v>54</v>
       </c>
-      <c r="E53" s="121"/>
+      <c r="E53" s="147"/>
       <c r="F53" s="44" t="s">
         <v>55</v>
       </c>
@@ -2931,12 +2907,12 @@
       <c r="V53" s="1"/>
       <c r="W53" s="10"/>
     </row>
-    <row r="54" spans="3:23" ht="21" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:23" ht="21" x14ac:dyDescent="0.4">
       <c r="C54" s="9"/>
-      <c r="D54" s="121" t="s">
+      <c r="D54" s="147" t="s">
         <v>56</v>
       </c>
-      <c r="E54" s="121"/>
+      <c r="E54" s="147"/>
       <c r="F54" s="44" t="s">
         <v>55</v>
       </c>
@@ -2945,7 +2921,7 @@
       <c r="V54" s="1"/>
       <c r="W54" s="10"/>
     </row>
-    <row r="55" spans="3:23" ht="21" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:23" ht="21" x14ac:dyDescent="0.3">
       <c r="C55" s="9"/>
       <c r="D55" s="110" t="s">
         <v>57</v>
@@ -2957,12 +2933,12 @@
       <c r="V55" s="1"/>
       <c r="W55" s="10"/>
     </row>
-    <row r="56" spans="3:23" ht="21" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:23" ht="21" x14ac:dyDescent="0.4">
       <c r="C56" s="9"/>
-      <c r="D56" s="121" t="s">
+      <c r="D56" s="147" t="s">
         <v>48</v>
       </c>
-      <c r="E56" s="121"/>
+      <c r="E56" s="147"/>
       <c r="F56" s="113" t="s">
         <v>58</v>
       </c>
@@ -2971,12 +2947,12 @@
       <c r="V56" s="1"/>
       <c r="W56" s="10"/>
     </row>
-    <row r="57" spans="3:23" ht="21" x14ac:dyDescent="0.35">
+    <row r="57" spans="3:23" ht="21" x14ac:dyDescent="0.4">
       <c r="C57" s="9"/>
-      <c r="D57" s="121" t="s">
+      <c r="D57" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="E57" s="121"/>
+      <c r="E57" s="147"/>
       <c r="F57" s="113" t="s">
         <v>59</v>
       </c>
@@ -2985,12 +2961,12 @@
       <c r="V57" s="1"/>
       <c r="W57" s="10"/>
     </row>
-    <row r="58" spans="3:23" ht="21" x14ac:dyDescent="0.35">
+    <row r="58" spans="3:23" ht="21" x14ac:dyDescent="0.4">
       <c r="C58" s="9"/>
-      <c r="D58" s="120" t="s">
+      <c r="D58" s="148" t="s">
         <v>52</v>
       </c>
-      <c r="E58" s="120"/>
+      <c r="E58" s="148"/>
       <c r="F58" s="44" t="s">
         <v>60</v>
       </c>
@@ -2999,12 +2975,12 @@
       <c r="V58" s="1"/>
       <c r="W58" s="10"/>
     </row>
-    <row r="59" spans="3:23" ht="21" x14ac:dyDescent="0.35">
+    <row r="59" spans="3:23" ht="21" x14ac:dyDescent="0.4">
       <c r="C59" s="9"/>
-      <c r="D59" s="121" t="s">
+      <c r="D59" s="147" t="s">
         <v>54</v>
       </c>
-      <c r="E59" s="121"/>
+      <c r="E59" s="147"/>
       <c r="F59" s="44" t="s">
         <v>61</v>
       </c>
@@ -3013,12 +2989,12 @@
       <c r="V59" s="1"/>
       <c r="W59" s="10"/>
     </row>
-    <row r="60" spans="3:23" ht="21" x14ac:dyDescent="0.35">
+    <row r="60" spans="3:23" ht="21" x14ac:dyDescent="0.4">
       <c r="C60" s="9"/>
-      <c r="D60" s="121" t="s">
+      <c r="D60" s="147" t="s">
         <v>56</v>
       </c>
-      <c r="E60" s="121"/>
+      <c r="E60" s="147"/>
       <c r="F60" s="44" t="s">
         <v>62</v>
       </c>
@@ -3027,7 +3003,7 @@
       <c r="V60" s="1"/>
       <c r="W60" s="10"/>
     </row>
-    <row r="61" spans="3:23" ht="21" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:23" ht="21" x14ac:dyDescent="0.3">
       <c r="C61" s="9"/>
       <c r="D61" s="110" t="s">
         <v>63</v>
@@ -3039,12 +3015,12 @@
       <c r="V61" s="1"/>
       <c r="W61" s="10"/>
     </row>
-    <row r="62" spans="3:23" ht="21" x14ac:dyDescent="0.35">
+    <row r="62" spans="3:23" ht="21" x14ac:dyDescent="0.4">
       <c r="C62" s="9"/>
-      <c r="D62" s="120" t="s">
+      <c r="D62" s="148" t="s">
         <v>64</v>
       </c>
-      <c r="E62" s="120"/>
+      <c r="E62" s="148"/>
       <c r="F62" s="113" t="s">
         <v>65</v>
       </c>
@@ -3053,12 +3029,12 @@
       <c r="V62" s="1"/>
       <c r="W62" s="10"/>
     </row>
-    <row r="63" spans="3:23" ht="21" x14ac:dyDescent="0.35">
+    <row r="63" spans="3:23" ht="21" x14ac:dyDescent="0.4">
       <c r="C63" s="9"/>
-      <c r="D63" s="120" t="s">
+      <c r="D63" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="E63" s="120"/>
+      <c r="E63" s="148"/>
       <c r="F63" s="44" t="s">
         <v>67</v>
       </c>
@@ -3067,12 +3043,12 @@
       <c r="V63" s="1"/>
       <c r="W63" s="10"/>
     </row>
-    <row r="64" spans="3:23" ht="21" x14ac:dyDescent="0.35">
+    <row r="64" spans="3:23" ht="21" x14ac:dyDescent="0.4">
       <c r="C64" s="9"/>
-      <c r="D64" s="120" t="s">
+      <c r="D64" s="148" t="s">
         <v>68</v>
       </c>
-      <c r="E64" s="120"/>
+      <c r="E64" s="148"/>
       <c r="F64" s="44" t="s">
         <v>69</v>
       </c>
@@ -3081,12 +3057,12 @@
       <c r="V64" s="1"/>
       <c r="W64" s="10"/>
     </row>
-    <row r="65" spans="3:23" ht="21" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:23" ht="21" x14ac:dyDescent="0.4">
       <c r="C65" s="9"/>
-      <c r="D65" s="120" t="s">
+      <c r="D65" s="148" t="s">
         <v>52</v>
       </c>
-      <c r="E65" s="120"/>
+      <c r="E65" s="148"/>
       <c r="F65" s="44" t="s">
         <v>60</v>
       </c>
@@ -3095,12 +3071,12 @@
       <c r="V65" s="1"/>
       <c r="W65" s="10"/>
     </row>
-    <row r="66" spans="3:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C66" s="9"/>
-      <c r="D66" s="121" t="s">
+      <c r="D66" s="147" t="s">
         <v>54</v>
       </c>
-      <c r="E66" s="121"/>
+      <c r="E66" s="147"/>
       <c r="F66" s="44" t="s">
         <v>61</v>
       </c>
@@ -3112,12 +3088,12 @@
       <c r="V66" s="1"/>
       <c r="W66" s="10"/>
     </row>
-    <row r="67" spans="3:23" ht="21" x14ac:dyDescent="0.35">
+    <row r="67" spans="3:23" ht="21" x14ac:dyDescent="0.4">
       <c r="C67" s="9"/>
-      <c r="D67" s="121" t="s">
+      <c r="D67" s="147" t="s">
         <v>56</v>
       </c>
-      <c r="E67" s="121"/>
+      <c r="E67" s="147"/>
       <c r="F67" s="44" t="s">
         <v>62</v>
       </c>
@@ -3129,7 +3105,7 @@
       <c r="V67" s="1"/>
       <c r="W67" s="10"/>
     </row>
-    <row r="68" spans="3:23" ht="21" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:23" ht="21" x14ac:dyDescent="0.3">
       <c r="C68" s="9"/>
       <c r="D68" s="92"/>
       <c r="E68" s="92"/>
@@ -3142,17 +3118,17 @@
       <c r="V68" s="1"/>
       <c r="W68" s="25"/>
     </row>
-    <row r="69" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C69" s="9"/>
       <c r="U69" s="1"/>
       <c r="V69" s="1"/>
       <c r="W69" s="10"/>
     </row>
-    <row r="70" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C70" s="9"/>
       <c r="W70" s="10"/>
     </row>
-    <row r="71" spans="3:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C71" s="11"/>
       <c r="D71" s="17"/>
       <c r="E71" s="17"/>
@@ -3177,6 +3153,47 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F6:I7"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F9:G10"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="D30:K31"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D47:G48"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="R9:U10"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="N9:Q10"/>
+    <mergeCell ref="P38:U38"/>
+    <mergeCell ref="T30:T31"/>
     <mergeCell ref="M30:M31"/>
     <mergeCell ref="O30:O31"/>
     <mergeCell ref="Q30:Q31"/>
@@ -3193,47 +3210,6 @@
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="L30:L31"/>
     <mergeCell ref="S30:S31"/>
-    <mergeCell ref="R9:U10"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="N9:Q10"/>
-    <mergeCell ref="P38:U38"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D47:G48"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F6:I7"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F9:G10"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="D30:K31"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
   </mergeCells>
   <pageMargins left="0.39" right="0.49" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="26" orientation="portrait" r:id="rId1"/>

--- a/assets/downloads/agente_compra/TRADING-ORDEN-PERU.xlsx
+++ b/assets/downloads/agente_compra/TRADING-ORDEN-PERU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\probusinees-intranet\assets\downloads\agente_compra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9B3049-286E-4260-871E-0612A3C988DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD59DE3-D692-400B-A078-255AC95ABD5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1295,17 +1295,56 @@
     <xf numFmtId="165" fontId="13" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1313,11 +1352,71 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1325,18 +1424,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1347,93 +1434,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1844,8 +1844,8 @@
   </sheetPr>
   <dimension ref="C1:AF71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C19" zoomScale="40" zoomScaleNormal="40" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1926,12 +1926,12 @@
       <c r="C6" s="9"/>
       <c r="D6" s="26"/>
       <c r="E6" s="27"/>
-      <c r="F6" s="153" t="s">
+      <c r="F6" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="153"/>
-      <c r="H6" s="153"/>
-      <c r="I6" s="153"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="118"/>
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6" s="48"/>
@@ -1946,10 +1946,10 @@
       <c r="C7" s="9"/>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7" s="48"/>
@@ -1973,18 +1973,18 @@
       <c r="K8"/>
       <c r="L8" s="48"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="138" t="s">
+      <c r="N8" s="145" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="138"/>
-      <c r="P8" s="138"/>
-      <c r="Q8" s="138"/>
-      <c r="R8" s="138" t="s">
+      <c r="O8" s="145"/>
+      <c r="P8" s="145"/>
+      <c r="Q8" s="145"/>
+      <c r="R8" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="S8" s="138"/>
-      <c r="T8" s="138"/>
-      <c r="U8" s="138"/>
+      <c r="S8" s="145"/>
+      <c r="T8" s="145"/>
+      <c r="U8" s="145"/>
       <c r="W8" s="10"/>
     </row>
     <row r="9" spans="3:23" ht="30.9" customHeight="1" x14ac:dyDescent="0.6">
@@ -1993,28 +1993,28 @@
         <v>18</v>
       </c>
       <c r="E9" s="32"/>
-      <c r="F9" s="156" t="s">
+      <c r="F9" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="156"/>
+      <c r="G9" s="121"/>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
       <c r="K9"/>
       <c r="L9" s="48"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="139" t="s">
+      <c r="N9" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="O9" s="140"/>
-      <c r="P9" s="140"/>
-      <c r="Q9" s="141"/>
-      <c r="R9" s="134">
+      <c r="O9" s="147"/>
+      <c r="P9" s="147"/>
+      <c r="Q9" s="148"/>
+      <c r="R9" s="141">
         <v>45470</v>
       </c>
-      <c r="S9" s="134"/>
-      <c r="T9" s="134"/>
-      <c r="U9" s="135"/>
+      <c r="S9" s="141"/>
+      <c r="T9" s="141"/>
+      <c r="U9" s="142"/>
       <c r="W9" s="10"/>
     </row>
     <row r="10" spans="3:23" ht="36.9" customHeight="1" x14ac:dyDescent="0.6">
@@ -2023,22 +2023,22 @@
         <v>17</v>
       </c>
       <c r="E10" s="32"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="156"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
       <c r="J10" s="33"/>
       <c r="K10"/>
       <c r="L10" s="48"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="142"/>
-      <c r="O10" s="143"/>
-      <c r="P10" s="143"/>
-      <c r="Q10" s="144"/>
-      <c r="R10" s="136"/>
-      <c r="S10" s="136"/>
-      <c r="T10" s="136"/>
-      <c r="U10" s="137"/>
+      <c r="N10" s="149"/>
+      <c r="O10" s="135"/>
+      <c r="P10" s="135"/>
+      <c r="Q10" s="150"/>
+      <c r="R10" s="143"/>
+      <c r="S10" s="143"/>
+      <c r="T10" s="143"/>
+      <c r="U10" s="144"/>
       <c r="W10" s="10"/>
     </row>
     <row r="11" spans="3:23" ht="36.6" x14ac:dyDescent="0.7">
@@ -2082,10 +2082,10 @@
     </row>
     <row r="13" spans="3:23" ht="36.9" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C13" s="9"/>
-      <c r="D13" s="160" t="s">
+      <c r="D13" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="161"/>
+      <c r="E13" s="130"/>
       <c r="F13" s="30"/>
       <c r="G13" s="30"/>
       <c r="H13"/>
@@ -2167,103 +2167,103 @@
     </row>
     <row r="17" spans="3:23" ht="31.2" x14ac:dyDescent="0.6">
       <c r="C17" s="9"/>
-      <c r="D17" s="130" t="s">
+      <c r="D17" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="131"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="121"/>
+      <c r="E17" s="160"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="134"/>
       <c r="H17" s="85"/>
       <c r="I17" s="85"/>
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17" s="48"/>
-      <c r="O17" s="130" t="s">
+      <c r="O17" s="159" t="s">
         <v>13</v>
       </c>
-      <c r="P17" s="131"/>
-      <c r="Q17" s="131"/>
-      <c r="R17" s="120"/>
-      <c r="S17" s="120"/>
-      <c r="T17" s="120"/>
-      <c r="U17" s="121"/>
+      <c r="P17" s="160"/>
+      <c r="Q17" s="160"/>
+      <c r="R17" s="133"/>
+      <c r="S17" s="133"/>
+      <c r="T17" s="133"/>
+      <c r="U17" s="134"/>
       <c r="W17" s="10"/>
     </row>
     <row r="18" spans="3:23" ht="31.2" x14ac:dyDescent="0.6">
       <c r="C18" s="9"/>
-      <c r="D18" s="128" t="s">
+      <c r="D18" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="129"/>
-      <c r="F18" s="122"/>
-      <c r="G18" s="123"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="131"/>
+      <c r="G18" s="132"/>
       <c r="H18" s="85"/>
       <c r="I18" s="85"/>
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18" s="48"/>
-      <c r="O18" s="128" t="s">
+      <c r="O18" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="P18" s="129"/>
-      <c r="Q18" s="129"/>
-      <c r="R18" s="122"/>
-      <c r="S18" s="122"/>
-      <c r="T18" s="122"/>
-      <c r="U18" s="123"/>
+      <c r="P18" s="123"/>
+      <c r="Q18" s="123"/>
+      <c r="R18" s="131"/>
+      <c r="S18" s="131"/>
+      <c r="T18" s="131"/>
+      <c r="U18" s="132"/>
       <c r="W18" s="10"/>
     </row>
     <row r="19" spans="3:23" ht="31.2" x14ac:dyDescent="0.6">
       <c r="C19" s="9"/>
-      <c r="D19" s="128" t="s">
+      <c r="D19" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="129"/>
-      <c r="F19" s="122"/>
-      <c r="G19" s="123"/>
+      <c r="E19" s="123"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="132"/>
       <c r="H19" s="85"/>
       <c r="I19" s="85"/>
       <c r="J19"/>
       <c r="K19"/>
       <c r="L19" s="48"/>
-      <c r="O19" s="128" t="s">
+      <c r="O19" s="122" t="s">
         <v>38</v>
       </c>
-      <c r="P19" s="129"/>
-      <c r="Q19" s="129"/>
-      <c r="R19" s="122"/>
-      <c r="S19" s="122"/>
-      <c r="T19" s="122"/>
-      <c r="U19" s="123"/>
+      <c r="P19" s="123"/>
+      <c r="Q19" s="123"/>
+      <c r="R19" s="131"/>
+      <c r="S19" s="131"/>
+      <c r="T19" s="131"/>
+      <c r="U19" s="132"/>
       <c r="W19" s="10"/>
     </row>
     <row r="20" spans="3:23" ht="31.2" x14ac:dyDescent="0.6">
       <c r="C20" s="9"/>
-      <c r="D20" s="126" t="s">
+      <c r="D20" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="127"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="162"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="135"/>
+      <c r="G20" s="136"/>
       <c r="H20" s="84"/>
       <c r="I20" s="84"/>
       <c r="K20"/>
       <c r="L20" s="48"/>
-      <c r="O20" s="126" t="s">
+      <c r="O20" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="P20" s="127"/>
-      <c r="Q20" s="127"/>
-      <c r="R20" s="124"/>
-      <c r="S20" s="124"/>
-      <c r="T20" s="124"/>
-      <c r="U20" s="125"/>
+      <c r="P20" s="128"/>
+      <c r="Q20" s="128"/>
+      <c r="R20" s="157"/>
+      <c r="S20" s="157"/>
+      <c r="T20" s="157"/>
+      <c r="U20" s="158"/>
       <c r="W20" s="10"/>
     </row>
     <row r="21" spans="3:23" ht="21" x14ac:dyDescent="0.4">
       <c r="C21" s="9"/>
-      <c r="F21" s="157"/>
-      <c r="G21" s="157"/>
+      <c r="F21" s="124"/>
+      <c r="G21" s="124"/>
       <c r="H21" s="38"/>
       <c r="I21" s="38"/>
       <c r="J21"/>
@@ -2361,23 +2361,23 @@
     </row>
     <row r="26" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C26" s="9"/>
-      <c r="D26" s="132"/>
-      <c r="E26" s="132"/>
-      <c r="F26" s="132"/>
-      <c r="G26" s="132"/>
-      <c r="H26" s="132"/>
-      <c r="I26" s="132"/>
-      <c r="J26" s="132"/>
-      <c r="K26" s="132"/>
-      <c r="L26" s="132"/>
-      <c r="M26" s="132"/>
-      <c r="N26" s="132"/>
-      <c r="O26" s="132"/>
-      <c r="P26" s="132"/>
-      <c r="Q26" s="132"/>
-      <c r="R26" s="132"/>
-      <c r="S26" s="132"/>
-      <c r="T26" s="132"/>
+      <c r="D26" s="161"/>
+      <c r="E26" s="161"/>
+      <c r="F26" s="161"/>
+      <c r="G26" s="161"/>
+      <c r="H26" s="161"/>
+      <c r="I26" s="161"/>
+      <c r="J26" s="161"/>
+      <c r="K26" s="161"/>
+      <c r="L26" s="161"/>
+      <c r="M26" s="161"/>
+      <c r="N26" s="161"/>
+      <c r="O26" s="161"/>
+      <c r="P26" s="161"/>
+      <c r="Q26" s="161"/>
+      <c r="R26" s="161"/>
+      <c r="S26" s="161"/>
+      <c r="T26" s="161"/>
       <c r="W26" s="10"/>
     </row>
     <row r="27" spans="3:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="W27" s="10"/>
     </row>
-    <row r="28" spans="3:23" ht="210" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:23" ht="313.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="9"/>
       <c r="D28" s="39">
         <v>1</v>
@@ -2479,7 +2479,7 @@
       <c r="U28" s="71"/>
       <c r="W28" s="10"/>
     </row>
-    <row r="29" spans="3:23" ht="210.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:23" ht="285" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="9"/>
       <c r="D29" s="40">
         <v>2</v>
@@ -2522,40 +2522,40 @@
     </row>
     <row r="30" spans="3:23" s="4" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="C30" s="15"/>
-      <c r="D30" s="158" t="s">
+      <c r="D30" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="159"/>
-      <c r="F30" s="159"/>
-      <c r="G30" s="159"/>
-      <c r="H30" s="159"/>
-      <c r="I30" s="159"/>
-      <c r="J30" s="158"/>
-      <c r="K30" s="159"/>
-      <c r="L30" s="133">
+      <c r="E30" s="126"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="126"/>
+      <c r="H30" s="126"/>
+      <c r="I30" s="126"/>
+      <c r="J30" s="125"/>
+      <c r="K30" s="126"/>
+      <c r="L30" s="162">
         <f>SUM(L28:L29)</f>
         <v>0</v>
       </c>
-      <c r="M30" s="116">
+      <c r="M30" s="153">
         <f>SUM(M28:M29)</f>
         <v>0</v>
       </c>
       <c r="N30" s="36"/>
-      <c r="O30" s="117">
+      <c r="O30" s="154">
         <f>SUM(O28:O29)</f>
         <v>0</v>
       </c>
       <c r="P30" s="36"/>
-      <c r="Q30" s="119">
+      <c r="Q30" s="156">
         <f>SUM(Q28:Q29)</f>
         <v>0</v>
       </c>
       <c r="R30" s="56"/>
-      <c r="S30" s="119">
+      <c r="S30" s="156">
         <f>SUM(S28:S29)</f>
         <v>0</v>
       </c>
-      <c r="T30" s="146">
+      <c r="T30" s="152">
         <f>SUM(T28:T29)</f>
         <v>0</v>
       </c>
@@ -2564,23 +2564,23 @@
     </row>
     <row r="31" spans="3:23" s="4" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="C31" s="15"/>
-      <c r="D31" s="158"/>
-      <c r="E31" s="158"/>
-      <c r="F31" s="158"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="158"/>
-      <c r="I31" s="158"/>
-      <c r="J31" s="158"/>
-      <c r="K31" s="158"/>
-      <c r="L31" s="133"/>
-      <c r="M31" s="116"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="125"/>
+      <c r="F31" s="125"/>
+      <c r="G31" s="125"/>
+      <c r="H31" s="125"/>
+      <c r="I31" s="125"/>
+      <c r="J31" s="125"/>
+      <c r="K31" s="125"/>
+      <c r="L31" s="162"/>
+      <c r="M31" s="153"/>
       <c r="N31" s="36"/>
-      <c r="O31" s="118"/>
+      <c r="O31" s="155"/>
       <c r="P31" s="36"/>
-      <c r="Q31" s="119"/>
+      <c r="Q31" s="156"/>
       <c r="R31" s="56"/>
-      <c r="S31" s="119"/>
-      <c r="T31" s="146"/>
+      <c r="S31" s="156"/>
+      <c r="T31" s="152"/>
       <c r="U31" s="37"/>
       <c r="W31" s="16"/>
     </row>
@@ -2640,10 +2640,10 @@
     </row>
     <row r="37" spans="3:32" s="101" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="97"/>
-      <c r="D37" s="154" t="s">
+      <c r="D37" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="155"/>
+      <c r="E37" s="120"/>
       <c r="F37" s="105">
         <f>+L30</f>
         <v>0</v>
@@ -2664,10 +2664,10 @@
     </row>
     <row r="38" spans="3:32" s="101" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="97"/>
-      <c r="D38" s="154" t="s">
+      <c r="D38" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="155"/>
+      <c r="E38" s="120"/>
       <c r="F38" s="105">
         <f>+T30</f>
         <v>0</v>
@@ -2680,22 +2680,22 @@
       <c r="I38" s="99"/>
       <c r="J38" s="100"/>
       <c r="L38" s="102"/>
-      <c r="P38" s="145"/>
-      <c r="Q38" s="145"/>
-      <c r="R38" s="145"/>
-      <c r="S38" s="145"/>
-      <c r="T38" s="145"/>
-      <c r="U38" s="145"/>
+      <c r="P38" s="151"/>
+      <c r="Q38" s="151"/>
+      <c r="R38" s="151"/>
+      <c r="S38" s="151"/>
+      <c r="T38" s="151"/>
+      <c r="U38" s="151"/>
       <c r="W38" s="104"/>
       <c r="AE38" s="108"/>
       <c r="AF38" s="108"/>
     </row>
     <row r="39" spans="3:32" s="101" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="97"/>
-      <c r="D39" s="154" t="s">
+      <c r="D39" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="E39" s="155"/>
+      <c r="E39" s="120"/>
       <c r="F39" s="105">
         <f>F37*5%</f>
         <v>0</v>
@@ -2713,10 +2713,10 @@
     </row>
     <row r="40" spans="3:32" s="101" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="97"/>
-      <c r="D40" s="154" t="s">
+      <c r="D40" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="155"/>
+      <c r="E40" s="120"/>
       <c r="F40" s="105">
         <f>SUM(F37:F39)</f>
         <v>0</v>
@@ -2734,10 +2734,10 @@
     </row>
     <row r="41" spans="3:32" s="101" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="97"/>
-      <c r="D41" s="149" t="s">
+      <c r="D41" s="137" t="s">
         <v>43</v>
       </c>
-      <c r="E41" s="150"/>
+      <c r="E41" s="138"/>
       <c r="F41" s="105">
         <f>F37*30%</f>
         <v>0</v>
@@ -2755,10 +2755,10 @@
     </row>
     <row r="42" spans="3:32" s="101" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="97"/>
-      <c r="D42" s="149" t="s">
+      <c r="D42" s="137" t="s">
         <v>44</v>
       </c>
-      <c r="E42" s="150"/>
+      <c r="E42" s="138"/>
       <c r="F42" s="105">
         <f>F37-F41</f>
         <v>0</v>
@@ -2776,10 +2776,10 @@
     </row>
     <row r="43" spans="3:32" s="101" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="97"/>
-      <c r="D43" s="149" t="s">
+      <c r="D43" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="E43" s="150"/>
+      <c r="E43" s="138"/>
       <c r="F43" s="105">
         <f>F38+F39</f>
         <v>0</v>
@@ -2819,22 +2819,22 @@
     </row>
     <row r="47" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C47" s="9"/>
-      <c r="D47" s="151" t="s">
+      <c r="D47" s="139" t="s">
         <v>46</v>
       </c>
-      <c r="E47" s="151"/>
-      <c r="F47" s="151"/>
-      <c r="G47" s="151"/>
+      <c r="E47" s="139"/>
+      <c r="F47" s="139"/>
+      <c r="G47" s="139"/>
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
       <c r="W47" s="10"/>
     </row>
     <row r="48" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C48" s="9"/>
-      <c r="D48" s="152"/>
-      <c r="E48" s="152"/>
-      <c r="F48" s="152"/>
-      <c r="G48" s="152"/>
+      <c r="D48" s="140"/>
+      <c r="E48" s="140"/>
+      <c r="F48" s="140"/>
+      <c r="G48" s="140"/>
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
       <c r="W48" s="10"/>
@@ -2853,10 +2853,10 @@
     </row>
     <row r="50" spans="3:23" ht="21" x14ac:dyDescent="0.4">
       <c r="C50" s="9"/>
-      <c r="D50" s="147" t="s">
+      <c r="D50" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="E50" s="147"/>
+      <c r="E50" s="117"/>
       <c r="F50" s="44" t="s">
         <v>49</v>
       </c>
@@ -2867,10 +2867,10 @@
     </row>
     <row r="51" spans="3:23" ht="21" x14ac:dyDescent="0.4">
       <c r="C51" s="9"/>
-      <c r="D51" s="147" t="s">
+      <c r="D51" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="E51" s="147"/>
+      <c r="E51" s="117"/>
       <c r="F51" s="44" t="s">
         <v>51</v>
       </c>
@@ -2881,10 +2881,10 @@
     </row>
     <row r="52" spans="3:23" ht="21" x14ac:dyDescent="0.4">
       <c r="C52" s="9"/>
-      <c r="D52" s="148" t="s">
+      <c r="D52" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="E52" s="148"/>
+      <c r="E52" s="116"/>
       <c r="F52" s="44" t="s">
         <v>53</v>
       </c>
@@ -2895,10 +2895,10 @@
     </row>
     <row r="53" spans="3:23" ht="21" x14ac:dyDescent="0.4">
       <c r="C53" s="9"/>
-      <c r="D53" s="147" t="s">
+      <c r="D53" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="E53" s="147"/>
+      <c r="E53" s="117"/>
       <c r="F53" s="44" t="s">
         <v>55</v>
       </c>
@@ -2909,10 +2909,10 @@
     </row>
     <row r="54" spans="3:23" ht="21" x14ac:dyDescent="0.4">
       <c r="C54" s="9"/>
-      <c r="D54" s="147" t="s">
+      <c r="D54" s="117" t="s">
         <v>56</v>
       </c>
-      <c r="E54" s="147"/>
+      <c r="E54" s="117"/>
       <c r="F54" s="44" t="s">
         <v>55</v>
       </c>
@@ -2935,10 +2935,10 @@
     </row>
     <row r="56" spans="3:23" ht="21" x14ac:dyDescent="0.4">
       <c r="C56" s="9"/>
-      <c r="D56" s="147" t="s">
+      <c r="D56" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="E56" s="147"/>
+      <c r="E56" s="117"/>
       <c r="F56" s="113" t="s">
         <v>58</v>
       </c>
@@ -2949,10 +2949,10 @@
     </row>
     <row r="57" spans="3:23" ht="21" x14ac:dyDescent="0.4">
       <c r="C57" s="9"/>
-      <c r="D57" s="147" t="s">
+      <c r="D57" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="E57" s="147"/>
+      <c r="E57" s="117"/>
       <c r="F57" s="113" t="s">
         <v>59</v>
       </c>
@@ -2963,10 +2963,10 @@
     </row>
     <row r="58" spans="3:23" ht="21" x14ac:dyDescent="0.4">
       <c r="C58" s="9"/>
-      <c r="D58" s="148" t="s">
+      <c r="D58" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="E58" s="148"/>
+      <c r="E58" s="116"/>
       <c r="F58" s="44" t="s">
         <v>60</v>
       </c>
@@ -2977,10 +2977,10 @@
     </row>
     <row r="59" spans="3:23" ht="21" x14ac:dyDescent="0.4">
       <c r="C59" s="9"/>
-      <c r="D59" s="147" t="s">
+      <c r="D59" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="E59" s="147"/>
+      <c r="E59" s="117"/>
       <c r="F59" s="44" t="s">
         <v>61</v>
       </c>
@@ -2991,10 +2991,10 @@
     </row>
     <row r="60" spans="3:23" ht="21" x14ac:dyDescent="0.4">
       <c r="C60" s="9"/>
-      <c r="D60" s="147" t="s">
+      <c r="D60" s="117" t="s">
         <v>56</v>
       </c>
-      <c r="E60" s="147"/>
+      <c r="E60" s="117"/>
       <c r="F60" s="44" t="s">
         <v>62</v>
       </c>
@@ -3017,10 +3017,10 @@
     </row>
     <row r="62" spans="3:23" ht="21" x14ac:dyDescent="0.4">
       <c r="C62" s="9"/>
-      <c r="D62" s="148" t="s">
+      <c r="D62" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="E62" s="148"/>
+      <c r="E62" s="116"/>
       <c r="F62" s="113" t="s">
         <v>65</v>
       </c>
@@ -3031,10 +3031,10 @@
     </row>
     <row r="63" spans="3:23" ht="21" x14ac:dyDescent="0.4">
       <c r="C63" s="9"/>
-      <c r="D63" s="148" t="s">
+      <c r="D63" s="116" t="s">
         <v>66</v>
       </c>
-      <c r="E63" s="148"/>
+      <c r="E63" s="116"/>
       <c r="F63" s="44" t="s">
         <v>67</v>
       </c>
@@ -3045,10 +3045,10 @@
     </row>
     <row r="64" spans="3:23" ht="21" x14ac:dyDescent="0.4">
       <c r="C64" s="9"/>
-      <c r="D64" s="148" t="s">
+      <c r="D64" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="E64" s="148"/>
+      <c r="E64" s="116"/>
       <c r="F64" s="44" t="s">
         <v>69</v>
       </c>
@@ -3059,10 +3059,10 @@
     </row>
     <row r="65" spans="3:23" ht="21" x14ac:dyDescent="0.4">
       <c r="C65" s="9"/>
-      <c r="D65" s="148" t="s">
+      <c r="D65" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="E65" s="148"/>
+      <c r="E65" s="116"/>
       <c r="F65" s="44" t="s">
         <v>60</v>
       </c>
@@ -3073,10 +3073,10 @@
     </row>
     <row r="66" spans="3:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C66" s="9"/>
-      <c r="D66" s="147" t="s">
+      <c r="D66" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="E66" s="147"/>
+      <c r="E66" s="117"/>
       <c r="F66" s="44" t="s">
         <v>61</v>
       </c>
@@ -3090,10 +3090,10 @@
     </row>
     <row r="67" spans="3:23" ht="21" x14ac:dyDescent="0.4">
       <c r="C67" s="9"/>
-      <c r="D67" s="147" t="s">
+      <c r="D67" s="117" t="s">
         <v>56</v>
       </c>
-      <c r="E67" s="147"/>
+      <c r="E67" s="117"/>
       <c r="F67" s="44" t="s">
         <v>62</v>
       </c>
@@ -3153,47 +3153,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F6:I7"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F9:G10"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="D30:K31"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D47:G48"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="R9:U10"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="N9:Q10"/>
-    <mergeCell ref="P38:U38"/>
-    <mergeCell ref="T30:T31"/>
     <mergeCell ref="M30:M31"/>
     <mergeCell ref="O30:O31"/>
     <mergeCell ref="Q30:Q31"/>
@@ -3210,6 +3169,47 @@
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="L30:L31"/>
     <mergeCell ref="S30:S31"/>
+    <mergeCell ref="R9:U10"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="N9:Q10"/>
+    <mergeCell ref="P38:U38"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D47:G48"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F6:I7"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F9:G10"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="D30:K31"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
   </mergeCells>
   <pageMargins left="0.39" right="0.49" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="26" orientation="portrait" r:id="rId1"/>
